--- a/data-migration/xlsx_1900-/1901_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1901_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D0817C-EDD1-4705-B20C-10CB978AD14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917ACE71-6B9C-42F8-BB69-64B10FCFEF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="1023">
   <si>
     <t>1901</t>
   </si>
@@ -2898,9 +2898,6 @@
     <t>haab_o</t>
   </si>
   <si>
-    <t>fick_ae</t>
-  </si>
-  <si>
     <t>wyder_t</t>
   </si>
   <si>
@@ -2988,9 +2985,6 @@
     <t>betz_lp</t>
   </si>
   <si>
-    <t>meyervonknonau_g</t>
-  </si>
-  <si>
     <t>billeter_g</t>
   </si>
   <si>
@@ -3060,9 +3054,6 @@
     <t>overton_e</t>
   </si>
   <si>
-    <t>schinz_h1</t>
-  </si>
-  <si>
     <t>kuendig_j</t>
   </si>
   <si>
@@ -3100,6 +3091,18 @@
   </si>
   <si>
     <t>heim_a1</t>
+  </si>
+  <si>
+    <t>fick_age</t>
+  </si>
+  <si>
+    <t>meyer-knonau_g</t>
+  </si>
+  <si>
+    <t>schinz_h</t>
+  </si>
+  <si>
+    <t>HP</t>
   </si>
 </sst>
 </file>
@@ -3452,21 +3455,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F268" workbookViewId="0">
-      <selection activeCell="H296" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G74" workbookViewId="0">
+      <selection activeCell="L96" sqref="L96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="30.54296875" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
     <col min="6" max="6" width="123" customWidth="1"/>
-    <col min="7" max="7" width="55.90625" customWidth="1"/>
+    <col min="7" max="7" width="55.85546875" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="11" max="11" width="11.36328125" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3495,7 +3498,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3524,7 +3527,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3550,7 +3553,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3576,7 +3579,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -3602,7 +3605,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -3628,7 +3631,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -3654,7 +3657,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -3680,7 +3683,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -3706,7 +3709,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -3732,7 +3735,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3758,7 +3761,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -3784,7 +3787,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -3810,7 +3813,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -3836,7 +3839,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -3865,7 +3868,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -3894,7 +3897,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -3923,7 +3926,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -3952,7 +3955,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -3978,7 +3981,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -4004,7 +4007,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -4030,7 +4033,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -4056,7 +4059,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -4082,7 +4085,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -4108,7 +4111,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -4134,7 +4137,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -4160,7 +4163,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -4186,7 +4189,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -4212,7 +4215,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -4238,7 +4241,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -4264,7 +4267,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -4287,10 +4290,10 @@
         <v>908</v>
       </c>
       <c r="I31" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -4316,7 +4319,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -4342,7 +4345,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -4368,7 +4371,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -4394,7 +4397,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -4420,7 +4423,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -4446,7 +4449,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -4472,7 +4475,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -4498,7 +4501,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -4524,7 +4527,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -4550,7 +4553,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -4576,7 +4579,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -4602,7 +4605,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -4628,7 +4631,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -4654,7 +4657,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -4680,7 +4683,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -4706,7 +4709,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -4735,7 +4738,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -4761,7 +4764,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -4787,7 +4790,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -4813,7 +4816,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -4842,7 +4845,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -4871,7 +4874,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -4897,7 +4900,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -4923,7 +4926,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -4949,7 +4952,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -4975,7 +4978,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -5001,7 +5004,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -5027,7 +5030,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -5053,7 +5056,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -5079,7 +5082,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -5105,7 +5108,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -5131,7 +5134,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -5157,7 +5160,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -5183,7 +5186,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -5212,7 +5215,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -5247,7 +5250,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -5270,7 +5273,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -5305,7 +5308,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -5346,7 +5349,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -5372,7 +5375,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -5398,7 +5401,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -5424,7 +5427,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -5450,7 +5453,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -5476,7 +5479,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -5502,7 +5505,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -5528,7 +5531,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -5554,7 +5557,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -5580,7 +5583,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -5606,7 +5609,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -5632,7 +5635,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -5658,7 +5661,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -5684,7 +5687,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -5710,7 +5713,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -5736,7 +5739,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -5762,7 +5765,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -5788,7 +5791,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -5814,7 +5817,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -5840,7 +5843,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -5866,7 +5869,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -5892,7 +5895,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -5918,7 +5921,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -5944,7 +5947,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -5963,11 +5966,11 @@
       <c r="G94" t="s">
         <v>4</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -5986,11 +5989,11 @@
       <c r="G95" t="s">
         <v>133</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -6009,11 +6012,11 @@
       <c r="G96" t="s">
         <v>845</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -6032,11 +6035,11 @@
       <c r="G97" t="s">
         <v>656</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -6062,7 +6065,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -6088,7 +6091,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -6114,7 +6117,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -6140,7 +6143,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -6166,7 +6169,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -6192,7 +6195,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -6218,7 +6221,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -6244,7 +6247,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -6270,7 +6273,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -6296,7 +6299,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -6322,7 +6325,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -6348,7 +6351,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -6374,7 +6377,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -6400,7 +6403,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -6426,7 +6429,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -6452,7 +6455,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -6478,7 +6481,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -6504,7 +6507,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -6530,7 +6533,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -6556,7 +6559,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -6582,7 +6585,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -6608,7 +6611,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -6634,7 +6637,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -6660,7 +6663,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -6686,7 +6689,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -6712,7 +6715,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -6738,7 +6741,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -6764,7 +6767,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -6790,7 +6793,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -6816,7 +6819,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -6842,7 +6845,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -6868,7 +6871,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -6894,7 +6897,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -6920,7 +6923,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -6946,7 +6949,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -6972,7 +6975,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -6998,7 +7001,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -7024,7 +7027,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -7044,13 +7047,13 @@
         <v>303</v>
       </c>
       <c r="H136" t="s">
-        <v>954</v>
+        <v>1019</v>
       </c>
       <c r="I136" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -7070,13 +7073,13 @@
         <v>875</v>
       </c>
       <c r="H137" t="s">
-        <v>954</v>
+        <v>1019</v>
       </c>
       <c r="I137" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -7096,13 +7099,13 @@
         <v>878</v>
       </c>
       <c r="H138" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="I138" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -7122,13 +7125,13 @@
         <v>352</v>
       </c>
       <c r="H139" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="I139" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -7148,13 +7151,13 @@
         <v>164</v>
       </c>
       <c r="H140" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="I140" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -7174,13 +7177,13 @@
         <v>356</v>
       </c>
       <c r="H141" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="I141" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -7200,13 +7203,13 @@
         <v>34</v>
       </c>
       <c r="H142" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="I142" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -7226,13 +7229,13 @@
         <v>361</v>
       </c>
       <c r="H143" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="I143" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -7252,13 +7255,13 @@
         <v>4</v>
       </c>
       <c r="H144" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="I144" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -7278,13 +7281,13 @@
         <v>366</v>
       </c>
       <c r="H145" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="I145" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -7304,13 +7307,13 @@
         <v>369</v>
       </c>
       <c r="H146" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I146" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -7330,13 +7333,13 @@
         <v>372</v>
       </c>
       <c r="H147" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I147" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -7356,13 +7359,13 @@
         <v>375</v>
       </c>
       <c r="H148" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="I148" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -7382,13 +7385,13 @@
         <v>378</v>
       </c>
       <c r="H149" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="I149" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -7408,13 +7411,13 @@
         <v>381</v>
       </c>
       <c r="H150" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I150" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>0</v>
       </c>
@@ -7434,13 +7437,13 @@
         <v>384</v>
       </c>
       <c r="H151" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I151" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -7460,13 +7463,13 @@
         <v>387</v>
       </c>
       <c r="H152" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I152" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>0</v>
       </c>
@@ -7486,13 +7489,13 @@
         <v>390</v>
       </c>
       <c r="H153" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="I153" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>0</v>
       </c>
@@ -7512,13 +7515,13 @@
         <v>393</v>
       </c>
       <c r="H154" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I154" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -7538,13 +7541,13 @@
         <v>395</v>
       </c>
       <c r="H155" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I155" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>0</v>
       </c>
@@ -7564,13 +7567,13 @@
         <v>395</v>
       </c>
       <c r="H156" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I156" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -7590,13 +7593,13 @@
         <v>398</v>
       </c>
       <c r="H157" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I157" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>0</v>
       </c>
@@ -7616,13 +7619,13 @@
         <v>400</v>
       </c>
       <c r="H158" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I158" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -7642,13 +7645,13 @@
         <v>403</v>
       </c>
       <c r="H159" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I159" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -7668,13 +7671,13 @@
         <v>406</v>
       </c>
       <c r="H160" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I160" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>0</v>
       </c>
@@ -7694,13 +7697,13 @@
         <v>409</v>
       </c>
       <c r="H161" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="I161" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -7720,13 +7723,13 @@
         <v>412</v>
       </c>
       <c r="H162" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I162" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -7746,13 +7749,13 @@
         <v>261</v>
       </c>
       <c r="H163" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="I163" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>0</v>
       </c>
@@ -7772,13 +7775,13 @@
         <v>417</v>
       </c>
       <c r="H164" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I164" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>0</v>
       </c>
@@ -7798,13 +7801,13 @@
         <v>261</v>
       </c>
       <c r="H165" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="I165" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>0</v>
       </c>
@@ -7824,13 +7827,13 @@
         <v>422</v>
       </c>
       <c r="H166" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I166" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -7850,13 +7853,13 @@
         <v>425</v>
       </c>
       <c r="H167" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="I167" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>0</v>
       </c>
@@ -7876,13 +7879,13 @@
         <v>428</v>
       </c>
       <c r="H168" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I168" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -7902,13 +7905,13 @@
         <v>431</v>
       </c>
       <c r="H169" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I169" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -7928,13 +7931,13 @@
         <v>272</v>
       </c>
       <c r="H170" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="I170" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -7954,13 +7957,13 @@
         <v>436</v>
       </c>
       <c r="H171" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="I171" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -7980,13 +7983,13 @@
         <v>439</v>
       </c>
       <c r="H172" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="I172" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -8006,13 +8009,13 @@
         <v>442</v>
       </c>
       <c r="H173" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="I173" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -8032,13 +8035,13 @@
         <v>445</v>
       </c>
       <c r="H174" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="I174" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>0</v>
       </c>
@@ -8058,13 +8061,13 @@
         <v>4</v>
       </c>
       <c r="H175" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I175" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>0</v>
       </c>
@@ -8084,13 +8087,13 @@
         <v>4</v>
       </c>
       <c r="H176" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I176" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>0</v>
       </c>
@@ -8116,7 +8119,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>0</v>
       </c>
@@ -8142,7 +8145,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>0</v>
       </c>
@@ -8162,13 +8165,13 @@
         <v>457</v>
       </c>
       <c r="H179" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="I179" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>0</v>
       </c>
@@ -8188,13 +8191,13 @@
         <v>460</v>
       </c>
       <c r="H180" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="I180" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>0</v>
       </c>
@@ -8214,13 +8217,13 @@
         <v>463</v>
       </c>
       <c r="H181" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I181" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>0</v>
       </c>
@@ -8240,13 +8243,13 @@
         <v>466</v>
       </c>
       <c r="H182" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I182" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>0</v>
       </c>
@@ -8266,13 +8269,13 @@
         <v>34</v>
       </c>
       <c r="H183" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="I183" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>0</v>
       </c>
@@ -8292,13 +8295,13 @@
         <v>471</v>
       </c>
       <c r="H184" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="I184" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -8318,13 +8321,13 @@
         <v>4</v>
       </c>
       <c r="H185" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="I185" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>0</v>
       </c>
@@ -8344,13 +8347,13 @@
         <v>476</v>
       </c>
       <c r="H186" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I186" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>0</v>
       </c>
@@ -8370,13 +8373,13 @@
         <v>261</v>
       </c>
       <c r="H187" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I187" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>0</v>
       </c>
@@ -8396,13 +8399,13 @@
         <v>481</v>
       </c>
       <c r="H188" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I188" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>0</v>
       </c>
@@ -8422,13 +8425,13 @@
         <v>7</v>
       </c>
       <c r="H189" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I189" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>0</v>
       </c>
@@ -8448,13 +8451,13 @@
         <v>486</v>
       </c>
       <c r="H190" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I190" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -8474,13 +8477,13 @@
         <v>7</v>
       </c>
       <c r="H191" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I191" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>0</v>
       </c>
@@ -8500,13 +8503,13 @@
         <v>490</v>
       </c>
       <c r="H192" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="I192" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>0</v>
       </c>
@@ -8526,13 +8529,13 @@
         <v>493</v>
       </c>
       <c r="H193" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I193" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>0</v>
       </c>
@@ -8552,13 +8555,13 @@
         <v>496</v>
       </c>
       <c r="H194" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I194" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>0</v>
       </c>
@@ -8578,13 +8581,13 @@
         <v>48</v>
       </c>
       <c r="H195" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="I195" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>0</v>
       </c>
@@ -8604,13 +8607,13 @@
         <v>501</v>
       </c>
       <c r="H196" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I196" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>0</v>
       </c>
@@ -8630,13 +8633,13 @@
         <v>504</v>
       </c>
       <c r="H197" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I197" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>0</v>
       </c>
@@ -8656,13 +8659,13 @@
         <v>507</v>
       </c>
       <c r="H198" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I198" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>0</v>
       </c>
@@ -8682,13 +8685,13 @@
         <v>510</v>
       </c>
       <c r="H199" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I199" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>0</v>
       </c>
@@ -8708,13 +8711,13 @@
         <v>513</v>
       </c>
       <c r="H200" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I200" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>0</v>
       </c>
@@ -8734,13 +8737,13 @@
         <v>516</v>
       </c>
       <c r="H201" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I201" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>0</v>
       </c>
@@ -8760,13 +8763,13 @@
         <v>261</v>
       </c>
       <c r="H202" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="I202" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>0</v>
       </c>
@@ -8786,13 +8789,13 @@
         <v>98</v>
       </c>
       <c r="H203" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I203" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>0</v>
       </c>
@@ -8812,13 +8815,13 @@
         <v>523</v>
       </c>
       <c r="H204" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I204" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>0</v>
       </c>
@@ -8838,13 +8841,13 @@
         <v>526</v>
       </c>
       <c r="H205" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I205" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>0</v>
       </c>
@@ -8864,13 +8867,13 @@
         <v>529</v>
       </c>
       <c r="H206" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="I206" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>0</v>
       </c>
@@ -8890,13 +8893,13 @@
         <v>531</v>
       </c>
       <c r="H207" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="I207" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>0</v>
       </c>
@@ -8916,13 +8919,13 @@
         <v>534</v>
       </c>
       <c r="H208" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I208" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>0</v>
       </c>
@@ -8942,13 +8945,13 @@
         <v>537</v>
       </c>
       <c r="H209" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I209" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>0</v>
       </c>
@@ -8968,13 +8971,13 @@
         <v>539</v>
       </c>
       <c r="H210" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I210" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>0</v>
       </c>
@@ -8994,13 +8997,13 @@
         <v>542</v>
       </c>
       <c r="H211" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I211" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>0</v>
       </c>
@@ -9020,13 +9023,13 @@
         <v>436</v>
       </c>
       <c r="H212" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I212" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>0</v>
       </c>
@@ -9046,13 +9049,13 @@
         <v>547</v>
       </c>
       <c r="H213" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I213" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>0</v>
       </c>
@@ -9072,13 +9075,13 @@
         <v>550</v>
       </c>
       <c r="H214" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I214" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>0</v>
       </c>
@@ -9098,13 +9101,13 @@
         <v>553</v>
       </c>
       <c r="H215" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I215" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>0</v>
       </c>
@@ -9124,13 +9127,13 @@
         <v>25</v>
       </c>
       <c r="H216" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I216" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>0</v>
       </c>
@@ -9150,13 +9153,13 @@
         <v>557</v>
       </c>
       <c r="H217" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I217" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>0</v>
       </c>
@@ -9176,13 +9179,13 @@
         <v>31</v>
       </c>
       <c r="H218" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I218" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>0</v>
       </c>
@@ -9202,13 +9205,13 @@
         <v>133</v>
       </c>
       <c r="H219" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I219" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>0</v>
       </c>
@@ -9228,13 +9231,13 @@
         <v>563</v>
       </c>
       <c r="H220" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I220" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>0</v>
       </c>
@@ -9254,13 +9257,13 @@
         <v>4</v>
       </c>
       <c r="H221" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I221" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>0</v>
       </c>
@@ -9280,13 +9283,13 @@
         <v>568</v>
       </c>
       <c r="H222" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I222" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>0</v>
       </c>
@@ -9306,13 +9309,13 @@
         <v>571</v>
       </c>
       <c r="H223" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I223" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>0</v>
       </c>
@@ -9332,13 +9335,13 @@
         <v>164</v>
       </c>
       <c r="H224" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I224" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>0</v>
       </c>
@@ -9358,13 +9361,13 @@
         <v>576</v>
       </c>
       <c r="H225" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I225" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>0</v>
       </c>
@@ -9384,13 +9387,13 @@
         <v>7</v>
       </c>
       <c r="H226" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I226" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>0</v>
       </c>
@@ -9410,13 +9413,13 @@
         <v>7</v>
       </c>
       <c r="H227" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I227" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>0</v>
       </c>
@@ -9436,13 +9439,13 @@
         <v>583</v>
       </c>
       <c r="H228" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I228" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -9462,13 +9465,13 @@
         <v>481</v>
       </c>
       <c r="H229" t="s">
-        <v>984</v>
+        <v>1020</v>
       </c>
       <c r="I229" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>0</v>
       </c>
@@ -9488,13 +9491,13 @@
         <v>7</v>
       </c>
       <c r="H230" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="I230" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>0</v>
       </c>
@@ -9514,13 +9517,13 @@
         <v>4</v>
       </c>
       <c r="H231" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="I231" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>0</v>
       </c>
@@ -9540,13 +9543,13 @@
         <v>591</v>
       </c>
       <c r="H232" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="I232" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>0</v>
       </c>
@@ -9566,13 +9569,13 @@
         <v>48</v>
       </c>
       <c r="H233" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="I233" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>0</v>
       </c>
@@ -9592,13 +9595,13 @@
         <v>596</v>
       </c>
       <c r="H234" t="s">
-        <v>984</v>
+        <v>1020</v>
       </c>
       <c r="I234" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>0</v>
       </c>
@@ -9618,13 +9621,13 @@
         <v>599</v>
       </c>
       <c r="H235" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="I235" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>0</v>
       </c>
@@ -9644,13 +9647,13 @@
         <v>602</v>
       </c>
       <c r="H236" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="I236" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>0</v>
       </c>
@@ -9670,13 +9673,13 @@
         <v>605</v>
       </c>
       <c r="H237" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="I237" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>0</v>
       </c>
@@ -9696,7 +9699,7 @@
         <v>608</v>
       </c>
       <c r="H238" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="I238" t="s">
         <v>893</v>
@@ -9705,7 +9708,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>0</v>
       </c>
@@ -9725,7 +9728,7 @@
         <v>857</v>
       </c>
       <c r="H239" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="I239" t="s">
         <v>893</v>
@@ -9734,7 +9737,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>0</v>
       </c>
@@ -9754,13 +9757,13 @@
         <v>612</v>
       </c>
       <c r="H240" t="s">
-        <v>984</v>
+        <v>1020</v>
       </c>
       <c r="I240" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>0</v>
       </c>
@@ -9780,13 +9783,13 @@
         <v>614</v>
       </c>
       <c r="H241" t="s">
-        <v>984</v>
+        <v>1020</v>
       </c>
       <c r="I241" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>0</v>
       </c>
@@ -9806,13 +9809,13 @@
         <v>617</v>
       </c>
       <c r="H242" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="I242" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>0</v>
       </c>
@@ -9832,13 +9835,13 @@
         <v>620</v>
       </c>
       <c r="H243" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="I243" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>0</v>
       </c>
@@ -9858,7 +9861,7 @@
         <v>623</v>
       </c>
       <c r="H244" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="I244" t="s">
         <v>893</v>
@@ -9867,7 +9870,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>0</v>
       </c>
@@ -9887,13 +9890,13 @@
         <v>626</v>
       </c>
       <c r="H245" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="I245" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>0</v>
       </c>
@@ -9913,13 +9916,13 @@
         <v>884</v>
       </c>
       <c r="H246" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I246" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>0</v>
       </c>
@@ -9939,13 +9942,13 @@
         <v>48</v>
       </c>
       <c r="H247" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="I247" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>0</v>
       </c>
@@ -9965,13 +9968,13 @@
         <v>4</v>
       </c>
       <c r="H248" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="I248" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>0</v>
       </c>
@@ -9991,13 +9994,13 @@
         <v>7</v>
       </c>
       <c r="H249" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="I249" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>0</v>
       </c>
@@ -10017,13 +10020,13 @@
         <v>103</v>
       </c>
       <c r="H250" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="I250" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>0</v>
       </c>
@@ -10043,13 +10046,13 @@
         <v>639</v>
       </c>
       <c r="H251" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="I251" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>0</v>
       </c>
@@ -10069,13 +10072,13 @@
         <v>642</v>
       </c>
       <c r="H252" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="I252" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>0</v>
       </c>
@@ -10095,13 +10098,13 @@
         <v>645</v>
       </c>
       <c r="H253" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="I253" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>0</v>
       </c>
@@ -10121,13 +10124,13 @@
         <v>648</v>
       </c>
       <c r="H254" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="I254" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>0</v>
       </c>
@@ -10147,13 +10150,13 @@
         <v>651</v>
       </c>
       <c r="H255" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="I255" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>0</v>
       </c>
@@ -10173,13 +10176,13 @@
         <v>4</v>
       </c>
       <c r="H256" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="I256" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>0</v>
       </c>
@@ -10199,13 +10202,13 @@
         <v>656</v>
       </c>
       <c r="H257" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="I257" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>0</v>
       </c>
@@ -10225,13 +10228,13 @@
         <v>4</v>
       </c>
       <c r="H258" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="I258" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>0</v>
       </c>
@@ -10251,13 +10254,13 @@
         <v>48</v>
       </c>
       <c r="H259" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="I259" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>0</v>
       </c>
@@ -10277,13 +10280,13 @@
         <v>4</v>
       </c>
       <c r="H260" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="I260" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>0</v>
       </c>
@@ -10303,13 +10306,13 @@
         <v>656</v>
       </c>
       <c r="H261" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="I261" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>0</v>
       </c>
@@ -10329,13 +10332,13 @@
         <v>4</v>
       </c>
       <c r="H262" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="I262" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>0</v>
       </c>
@@ -10355,13 +10358,13 @@
         <v>656</v>
       </c>
       <c r="H263" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="I263" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>0</v>
       </c>
@@ -10381,13 +10384,13 @@
         <v>4</v>
       </c>
       <c r="H264" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="I264" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>0</v>
       </c>
@@ -10407,13 +10410,13 @@
         <v>37</v>
       </c>
       <c r="H265" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="I265" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>0</v>
       </c>
@@ -10433,13 +10436,13 @@
         <v>4</v>
       </c>
       <c r="H266" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="I266" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>0</v>
       </c>
@@ -10462,13 +10465,13 @@
         <v>886</v>
       </c>
       <c r="H267" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="I267" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>0</v>
       </c>
@@ -10488,13 +10491,13 @@
         <v>679</v>
       </c>
       <c r="H268" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="I268" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>0</v>
       </c>
@@ -10517,13 +10520,13 @@
         <v>682</v>
       </c>
       <c r="H269" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="I269" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>0</v>
       </c>
@@ -10543,13 +10546,13 @@
         <v>685</v>
       </c>
       <c r="H270" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="I270" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>0</v>
       </c>
@@ -10569,13 +10572,13 @@
         <v>4</v>
       </c>
       <c r="H271" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="I271" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>0</v>
       </c>
@@ -10595,13 +10598,13 @@
         <v>690</v>
       </c>
       <c r="H272" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="I272" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>0</v>
       </c>
@@ -10621,13 +10624,13 @@
         <v>185</v>
       </c>
       <c r="H273" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="I273" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>0</v>
       </c>
@@ -10647,13 +10650,13 @@
         <v>44</v>
       </c>
       <c r="H274" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="I274" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>0</v>
       </c>
@@ -10673,13 +10676,13 @@
         <v>22</v>
       </c>
       <c r="H275" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="I275" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>0</v>
       </c>
@@ -10699,13 +10702,13 @@
         <v>185</v>
       </c>
       <c r="H276" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="I276" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>0</v>
       </c>
@@ -10725,13 +10728,13 @@
         <v>185</v>
       </c>
       <c r="H277" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="I277" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>0</v>
       </c>
@@ -10751,13 +10754,13 @@
         <v>869</v>
       </c>
       <c r="H278" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="I278" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>0</v>
       </c>
@@ -10777,13 +10780,13 @@
         <v>869</v>
       </c>
       <c r="H279" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="I279" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>0</v>
       </c>
@@ -10803,13 +10806,13 @@
         <v>704</v>
       </c>
       <c r="H280" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="I280" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>0</v>
       </c>
@@ -10829,13 +10832,13 @@
         <v>707</v>
       </c>
       <c r="H281" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="I281" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>0</v>
       </c>
@@ -10855,13 +10858,13 @@
         <v>710</v>
       </c>
       <c r="H282" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="I282" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>0</v>
       </c>
@@ -10881,13 +10884,13 @@
         <v>713</v>
       </c>
       <c r="H283" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="I283" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>0</v>
       </c>
@@ -10907,13 +10910,13 @@
         <v>716</v>
       </c>
       <c r="H284" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="I284" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>0</v>
       </c>
@@ -10933,13 +10936,13 @@
         <v>719</v>
       </c>
       <c r="H285" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="I285" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>0</v>
       </c>
@@ -10959,13 +10962,13 @@
         <v>722</v>
       </c>
       <c r="H286" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="I286" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>0</v>
       </c>
@@ -10985,13 +10988,13 @@
         <v>866</v>
       </c>
       <c r="H287" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="I287" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>0</v>
       </c>
@@ -11011,13 +11014,13 @@
         <v>185</v>
       </c>
       <c r="H288" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="I288" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>0</v>
       </c>
@@ -11037,13 +11040,13 @@
         <v>728</v>
       </c>
       <c r="H289" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="I289" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>0</v>
       </c>
@@ -11063,13 +11066,13 @@
         <v>48</v>
       </c>
       <c r="H290" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I290" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>0</v>
       </c>
@@ -11089,13 +11092,13 @@
         <v>7</v>
       </c>
       <c r="H291" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I291" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>0</v>
       </c>
@@ -11118,13 +11121,13 @@
         <v>735</v>
       </c>
       <c r="H292" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I292" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>0</v>
       </c>
@@ -11147,13 +11150,13 @@
         <v>48</v>
       </c>
       <c r="H293" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I293" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>0</v>
       </c>
@@ -11176,13 +11179,13 @@
         <v>34</v>
       </c>
       <c r="H294" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I294" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>0</v>
       </c>
@@ -11205,13 +11208,13 @@
         <v>185</v>
       </c>
       <c r="H295" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I295" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>0</v>
       </c>
@@ -11231,13 +11234,13 @@
         <v>744</v>
       </c>
       <c r="H296" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="I296" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>0</v>
       </c>
@@ -11257,13 +11260,13 @@
         <v>4</v>
       </c>
       <c r="H297" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="I297" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>0</v>
       </c>
@@ -11283,13 +11286,13 @@
         <v>749</v>
       </c>
       <c r="H298" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="I298" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>0</v>
       </c>
@@ -11312,13 +11315,13 @@
         <v>48</v>
       </c>
       <c r="H299" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="I299" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>0</v>
       </c>
@@ -11338,13 +11341,13 @@
         <v>4</v>
       </c>
       <c r="H300" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="I300" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>0</v>
       </c>
@@ -11364,13 +11367,13 @@
         <v>4</v>
       </c>
       <c r="H301" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="I301" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>0</v>
       </c>
@@ -11390,13 +11393,13 @@
         <v>4</v>
       </c>
       <c r="H302" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="I302" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>0</v>
       </c>
@@ -11416,13 +11419,13 @@
         <v>4</v>
       </c>
       <c r="H303" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="I303" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>0</v>
       </c>
@@ -11442,13 +11445,13 @@
         <v>4</v>
       </c>
       <c r="H304" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I304" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>0</v>
       </c>
@@ -11468,19 +11471,19 @@
         <v>626</v>
       </c>
       <c r="H305" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I305" t="s">
         <v>905</v>
       </c>
       <c r="K305" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="L305" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>0</v>
       </c>
@@ -11500,19 +11503,19 @@
         <v>860</v>
       </c>
       <c r="H306" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I306" t="s">
         <v>905</v>
       </c>
       <c r="K306" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="L306" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>0</v>
       </c>
@@ -11532,19 +11535,19 @@
         <v>185</v>
       </c>
       <c r="H307" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I307" t="s">
         <v>905</v>
       </c>
       <c r="K307" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="L307" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>0</v>
       </c>
@@ -11564,7 +11567,7 @@
         <v>863</v>
       </c>
       <c r="H308" t="s">
-        <v>1008</v>
+        <v>1021</v>
       </c>
       <c r="I308" t="s">
         <v>905</v>
@@ -11573,7 +11576,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>0</v>
       </c>
@@ -11593,7 +11596,7 @@
         <v>769</v>
       </c>
       <c r="H309" t="s">
-        <v>1008</v>
+        <v>1021</v>
       </c>
       <c r="I309" t="s">
         <v>905</v>
@@ -11602,7 +11605,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>0</v>
       </c>
@@ -11622,7 +11625,7 @@
         <v>772</v>
       </c>
       <c r="H310" t="s">
-        <v>1008</v>
+        <v>1021</v>
       </c>
       <c r="I310" t="s">
         <v>905</v>
@@ -11631,7 +11634,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>0</v>
       </c>
@@ -11651,7 +11654,7 @@
         <v>775</v>
       </c>
       <c r="H311" t="s">
-        <v>1008</v>
+        <v>1021</v>
       </c>
       <c r="I311" t="s">
         <v>905</v>
@@ -11660,7 +11663,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>0</v>
       </c>
@@ -11680,7 +11683,7 @@
         <v>778</v>
       </c>
       <c r="H312" t="s">
-        <v>1008</v>
+        <v>1021</v>
       </c>
       <c r="I312" t="s">
         <v>905</v>
@@ -11689,7 +11692,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>0</v>
       </c>
@@ -11709,7 +11712,7 @@
         <v>781</v>
       </c>
       <c r="H313" t="s">
-        <v>1008</v>
+        <v>1021</v>
       </c>
       <c r="I313" t="s">
         <v>905</v>
@@ -11718,7 +11721,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>0</v>
       </c>
@@ -11738,13 +11741,13 @@
         <v>48</v>
       </c>
       <c r="H314" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="I314" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>0</v>
       </c>
@@ -11764,13 +11767,13 @@
         <v>591</v>
       </c>
       <c r="H315" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="I315" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>0</v>
       </c>
@@ -11790,13 +11793,13 @@
         <v>788</v>
       </c>
       <c r="H316" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="I316" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>0</v>
       </c>
@@ -11816,13 +11819,13 @@
         <v>791</v>
       </c>
       <c r="H317" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="I317" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>0</v>
       </c>
@@ -11842,13 +11845,13 @@
         <v>794</v>
       </c>
       <c r="H318" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="I318" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>0</v>
       </c>
@@ -11868,13 +11871,13 @@
         <v>797</v>
       </c>
       <c r="H319" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="I319" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>0</v>
       </c>
@@ -11894,13 +11897,13 @@
         <v>800</v>
       </c>
       <c r="H320" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="I320" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>0</v>
       </c>
@@ -11920,13 +11923,13 @@
         <v>133</v>
       </c>
       <c r="H321" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="I321" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>0</v>
       </c>
@@ -11946,13 +11949,13 @@
         <v>805</v>
       </c>
       <c r="H322" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I322" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>0</v>
       </c>
@@ -11972,13 +11975,13 @@
         <v>591</v>
       </c>
       <c r="H323" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="I323" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>0</v>
       </c>
@@ -11998,13 +12001,13 @@
         <v>48</v>
       </c>
       <c r="H324" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="I324" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>0</v>
       </c>
@@ -12024,13 +12027,13 @@
         <v>810</v>
       </c>
       <c r="H325" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="I325" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>0</v>
       </c>
@@ -12050,13 +12053,13 @@
         <v>813</v>
       </c>
       <c r="H326" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="I326" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>0</v>
       </c>
@@ -12076,13 +12079,13 @@
         <v>185</v>
       </c>
       <c r="H327" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="I327" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>0</v>
       </c>
@@ -12102,13 +12105,13 @@
         <v>48</v>
       </c>
       <c r="H328" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="I328" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>0</v>
       </c>
@@ -12128,13 +12131,13 @@
         <v>817</v>
       </c>
       <c r="H329" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I329" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>0</v>
       </c>
@@ -12154,13 +12157,13 @@
         <v>818</v>
       </c>
       <c r="H330" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="I330" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>0</v>
       </c>
@@ -12180,13 +12183,13 @@
         <v>145</v>
       </c>
       <c r="H331" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I331" t="s">
         <v>1017</v>
       </c>
-      <c r="I331" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>0</v>
       </c>
@@ -12206,31 +12209,31 @@
         <v>820</v>
       </c>
       <c r="H332" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I332" t="s">
         <v>893</v>
       </c>
       <c r="K332" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="L332" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="M332" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="N332" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="O332" t="s">
+        <v>1014</v>
+      </c>
+      <c r="P332" t="s">
         <v>1017</v>
       </c>
-      <c r="P332" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>0</v>
       </c>
@@ -12250,13 +12253,13 @@
         <v>822</v>
       </c>
       <c r="H333" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="I333" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>0</v>
       </c>
@@ -12276,13 +12279,13 @@
         <v>824</v>
       </c>
       <c r="H334" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I334" t="s">
         <v>1017</v>
       </c>
-      <c r="I334" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>0</v>
       </c>
@@ -12302,13 +12305,13 @@
         <v>826</v>
       </c>
       <c r="H335" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="I335" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>0</v>
       </c>
@@ -12328,13 +12331,13 @@
         <v>828</v>
       </c>
       <c r="H336" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="I336" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>0</v>
       </c>
@@ -12354,13 +12357,13 @@
         <v>865</v>
       </c>
       <c r="H337" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="I337" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>0</v>
       </c>
@@ -12380,13 +12383,13 @@
         <v>830</v>
       </c>
       <c r="H338" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="I338" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>0</v>
       </c>
@@ -12406,13 +12409,13 @@
         <v>832</v>
       </c>
       <c r="H339" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="I339" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>0</v>
       </c>
@@ -12432,10 +12435,10 @@
         <v>834</v>
       </c>
       <c r="H340" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="I340" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
   </sheetData>

--- a/data-migration/xlsx_1900-/1901_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1901_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC138B7-B100-43E1-B57F-A8235970D5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3598456-A5A0-4D7C-8827-36099C9CC479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17880" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2766" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="1022">
   <si>
     <t>1901</t>
   </si>
@@ -3451,21 +3451,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F313" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" customWidth="1"/>
     <col min="6" max="6" width="123" customWidth="1"/>
-    <col min="7" max="7" width="55.85546875" customWidth="1"/>
+    <col min="7" max="7" width="55.88671875" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -4262,8 +4262,11 @@
       <c r="I30" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -4289,7 +4292,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -4315,7 +4318,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -4341,7 +4344,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -4367,7 +4370,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -4393,7 +4396,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -4419,7 +4422,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -4445,7 +4448,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -4471,7 +4474,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -4497,7 +4500,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -4523,7 +4526,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -4549,7 +4552,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -4575,7 +4578,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -4601,7 +4604,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -4627,7 +4630,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -4653,7 +4656,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -4679,7 +4682,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -4705,7 +4708,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -4734,7 +4737,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -4760,7 +4763,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -4786,7 +4789,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -4812,7 +4815,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -4841,7 +4844,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -4870,7 +4873,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -4896,7 +4899,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -4922,7 +4925,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -4948,7 +4951,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -4974,7 +4977,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -5000,7 +5003,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -5026,7 +5029,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -5052,7 +5055,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -5078,7 +5081,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -5104,7 +5107,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -5130,7 +5133,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -5156,7 +5159,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -5182,7 +5185,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -5211,7 +5214,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -5246,7 +5249,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -5275,7 +5278,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -5310,7 +5313,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -5351,7 +5354,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -5377,7 +5380,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -5403,7 +5406,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -5429,7 +5432,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -5455,7 +5458,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -5481,7 +5484,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -5507,7 +5510,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -5533,7 +5536,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -5559,7 +5562,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -5585,7 +5588,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -5611,7 +5614,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -5637,7 +5640,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -5663,7 +5666,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -5689,7 +5692,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -5715,7 +5718,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -5741,7 +5744,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -5767,7 +5770,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -5793,7 +5796,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -5819,7 +5822,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -5845,7 +5848,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -5871,7 +5874,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -5897,7 +5900,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -5923,7 +5926,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -5949,7 +5952,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -5972,7 +5975,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -5995,7 +5998,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -6018,7 +6021,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -6041,7 +6044,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -6067,7 +6070,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -6093,7 +6096,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -6119,7 +6122,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -6145,7 +6148,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -6171,7 +6174,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -6197,7 +6200,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -6223,7 +6226,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -6249,7 +6252,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -6275,7 +6278,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -6301,7 +6304,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -6327,7 +6330,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -6353,7 +6356,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -6379,7 +6382,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -6405,7 +6408,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -6431,7 +6434,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -6457,7 +6460,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -6483,7 +6486,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -6509,7 +6512,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -6535,7 +6538,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -6561,7 +6564,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -6587,7 +6590,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -6613,7 +6616,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -6639,7 +6642,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -6665,7 +6668,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -6691,7 +6694,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -6717,7 +6720,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -6743,7 +6746,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -6769,7 +6772,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -6795,7 +6798,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -6821,7 +6824,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -6847,7 +6850,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -6873,7 +6876,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -6899,7 +6902,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -6925,7 +6928,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -6951,7 +6954,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -6977,7 +6980,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -7003,7 +7006,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -7029,7 +7032,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -7055,7 +7058,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -7081,7 +7084,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -7107,7 +7110,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -7133,7 +7136,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -7159,7 +7162,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -7185,7 +7188,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -7211,7 +7214,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -7237,7 +7240,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -7263,7 +7266,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -7289,7 +7292,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -7315,7 +7318,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -7341,7 +7344,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -7367,7 +7370,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -7393,7 +7396,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -7419,7 +7422,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>0</v>
       </c>
@@ -7445,7 +7448,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -7471,7 +7474,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>0</v>
       </c>
@@ -7497,7 +7500,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>0</v>
       </c>
@@ -7523,7 +7526,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -7549,7 +7552,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>0</v>
       </c>
@@ -7575,7 +7578,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -7601,7 +7604,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>0</v>
       </c>
@@ -7627,7 +7630,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -7653,7 +7656,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -7679,7 +7682,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>0</v>
       </c>
@@ -7705,7 +7708,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -7731,7 +7734,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -7757,7 +7760,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>0</v>
       </c>
@@ -7783,7 +7786,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>0</v>
       </c>
@@ -7809,7 +7812,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>0</v>
       </c>
@@ -7835,7 +7838,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -7861,7 +7864,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>0</v>
       </c>
@@ -7887,7 +7890,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -7913,7 +7916,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -7939,7 +7942,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -7965,7 +7968,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -7991,7 +7994,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -8017,7 +8020,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -8043,7 +8046,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>0</v>
       </c>
@@ -8069,7 +8072,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>0</v>
       </c>
@@ -8095,7 +8098,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>0</v>
       </c>
@@ -8121,7 +8124,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>0</v>
       </c>
@@ -8147,7 +8150,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>0</v>
       </c>
@@ -8173,7 +8176,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>0</v>
       </c>
@@ -8199,7 +8202,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>0</v>
       </c>
@@ -8225,7 +8228,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>0</v>
       </c>
@@ -8251,7 +8254,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>0</v>
       </c>
@@ -8277,7 +8280,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>0</v>
       </c>
@@ -8303,7 +8306,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -8329,7 +8332,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>0</v>
       </c>
@@ -8355,7 +8358,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>0</v>
       </c>
@@ -8381,7 +8384,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>0</v>
       </c>
@@ -8407,7 +8410,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>0</v>
       </c>
@@ -8433,7 +8436,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>0</v>
       </c>
@@ -8459,7 +8462,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -8485,7 +8488,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>0</v>
       </c>
@@ -8511,7 +8514,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>0</v>
       </c>
@@ -8537,7 +8540,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>0</v>
       </c>
@@ -8563,7 +8566,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>0</v>
       </c>
@@ -8589,7 +8592,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>0</v>
       </c>
@@ -8615,7 +8618,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>0</v>
       </c>
@@ -8641,7 +8644,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>0</v>
       </c>
@@ -8667,7 +8670,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>0</v>
       </c>
@@ -8693,7 +8696,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>0</v>
       </c>
@@ -8719,7 +8722,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>0</v>
       </c>
@@ -8745,7 +8748,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>0</v>
       </c>
@@ -8771,7 +8774,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>0</v>
       </c>
@@ -8797,7 +8800,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>0</v>
       </c>
@@ -8823,7 +8826,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>0</v>
       </c>
@@ -8849,7 +8852,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>0</v>
       </c>
@@ -8875,7 +8878,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>0</v>
       </c>
@@ -8901,7 +8904,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>0</v>
       </c>
@@ -8927,7 +8930,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>0</v>
       </c>
@@ -8953,7 +8956,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>0</v>
       </c>
@@ -8979,7 +8982,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>0</v>
       </c>
@@ -9005,7 +9008,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>0</v>
       </c>
@@ -9031,7 +9034,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>0</v>
       </c>
@@ -9057,7 +9060,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>0</v>
       </c>
@@ -9083,7 +9086,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>0</v>
       </c>
@@ -9109,7 +9112,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>0</v>
       </c>
@@ -9135,7 +9138,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>0</v>
       </c>
@@ -9161,7 +9164,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>0</v>
       </c>
@@ -9187,7 +9190,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>0</v>
       </c>
@@ -9213,7 +9216,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>0</v>
       </c>
@@ -9239,7 +9242,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>0</v>
       </c>
@@ -9265,7 +9268,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>0</v>
       </c>
@@ -9291,7 +9294,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>0</v>
       </c>
@@ -9317,7 +9320,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>0</v>
       </c>
@@ -9343,7 +9346,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>0</v>
       </c>
@@ -9369,7 +9372,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>0</v>
       </c>
@@ -9395,7 +9398,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>0</v>
       </c>
@@ -9421,7 +9424,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>0</v>
       </c>
@@ -9447,7 +9450,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -9473,7 +9476,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>0</v>
       </c>
@@ -9499,7 +9502,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>0</v>
       </c>
@@ -9525,7 +9528,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>0</v>
       </c>
@@ -9551,7 +9554,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>0</v>
       </c>
@@ -9577,7 +9580,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>0</v>
       </c>
@@ -9603,7 +9606,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>0</v>
       </c>
@@ -9629,7 +9632,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>0</v>
       </c>
@@ -9655,7 +9658,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>0</v>
       </c>
@@ -9681,7 +9684,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>0</v>
       </c>
@@ -9710,7 +9713,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>0</v>
       </c>
@@ -9739,7 +9742,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>0</v>
       </c>
@@ -9765,7 +9768,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>0</v>
       </c>
@@ -9791,7 +9794,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>0</v>
       </c>
@@ -9817,7 +9820,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>0</v>
       </c>
@@ -9843,7 +9846,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>0</v>
       </c>
@@ -9872,7 +9875,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>0</v>
       </c>
@@ -9898,7 +9901,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>0</v>
       </c>
@@ -9924,7 +9927,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>0</v>
       </c>
@@ -9950,7 +9953,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>0</v>
       </c>
@@ -9976,7 +9979,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>0</v>
       </c>
@@ -10002,7 +10005,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>0</v>
       </c>
@@ -10028,7 +10031,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>0</v>
       </c>
@@ -10054,7 +10057,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>0</v>
       </c>
@@ -10080,7 +10083,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>0</v>
       </c>
@@ -10106,7 +10109,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>0</v>
       </c>
@@ -10132,7 +10135,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>0</v>
       </c>
@@ -10158,7 +10161,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>0</v>
       </c>
@@ -10184,7 +10187,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>0</v>
       </c>
@@ -10210,7 +10213,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>0</v>
       </c>
@@ -10236,7 +10239,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>0</v>
       </c>
@@ -10262,7 +10265,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>0</v>
       </c>
@@ -10288,7 +10291,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>0</v>
       </c>
@@ -10314,7 +10317,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>0</v>
       </c>
@@ -10340,7 +10343,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>0</v>
       </c>
@@ -10366,7 +10369,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>0</v>
       </c>
@@ -10392,7 +10395,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>0</v>
       </c>
@@ -10418,7 +10421,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>0</v>
       </c>
@@ -10444,7 +10447,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>0</v>
       </c>
@@ -10473,7 +10476,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>0</v>
       </c>
@@ -10499,7 +10502,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>0</v>
       </c>
@@ -10528,7 +10531,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>0</v>
       </c>
@@ -10554,7 +10557,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>0</v>
       </c>
@@ -10580,7 +10583,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>0</v>
       </c>
@@ -10606,7 +10609,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>0</v>
       </c>
@@ -10632,7 +10635,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>0</v>
       </c>
@@ -10658,7 +10661,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>0</v>
       </c>
@@ -10684,7 +10687,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>0</v>
       </c>
@@ -10710,7 +10713,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>0</v>
       </c>
@@ -10736,7 +10739,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>0</v>
       </c>
@@ -10762,7 +10765,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>0</v>
       </c>
@@ -10788,7 +10791,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>0</v>
       </c>
@@ -10814,7 +10817,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>0</v>
       </c>
@@ -10840,7 +10843,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>0</v>
       </c>
@@ -10866,7 +10869,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>0</v>
       </c>
@@ -10892,7 +10895,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>0</v>
       </c>
@@ -10918,7 +10921,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>0</v>
       </c>
@@ -10944,7 +10947,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>0</v>
       </c>
@@ -10970,7 +10973,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>0</v>
       </c>
@@ -10996,7 +10999,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>0</v>
       </c>
@@ -11022,7 +11025,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>0</v>
       </c>
@@ -11048,7 +11051,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>0</v>
       </c>
@@ -11074,7 +11077,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>0</v>
       </c>
@@ -11100,7 +11103,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>0</v>
       </c>
@@ -11129,7 +11132,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>0</v>
       </c>
@@ -11158,7 +11161,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>0</v>
       </c>
@@ -11187,7 +11190,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>0</v>
       </c>
@@ -11216,7 +11219,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>0</v>
       </c>
@@ -11242,7 +11245,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>0</v>
       </c>
@@ -11268,7 +11271,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>0</v>
       </c>
@@ -11294,7 +11297,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>0</v>
       </c>
@@ -11323,7 +11326,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>0</v>
       </c>
@@ -11349,7 +11352,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>0</v>
       </c>
@@ -11375,7 +11378,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>0</v>
       </c>
@@ -11401,7 +11404,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>0</v>
       </c>
@@ -11427,7 +11430,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>0</v>
       </c>
@@ -11453,7 +11456,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>0</v>
       </c>
@@ -11485,7 +11488,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>0</v>
       </c>
@@ -11517,7 +11520,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>0</v>
       </c>
@@ -11549,7 +11552,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>0</v>
       </c>
@@ -11578,7 +11581,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>0</v>
       </c>
@@ -11607,7 +11610,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>0</v>
       </c>
@@ -11636,7 +11639,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>0</v>
       </c>
@@ -11665,7 +11668,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>0</v>
       </c>
@@ -11694,7 +11697,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>0</v>
       </c>
@@ -11723,7 +11726,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>0</v>
       </c>
@@ -11749,7 +11752,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>0</v>
       </c>
@@ -11775,7 +11778,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>0</v>
       </c>
@@ -11801,7 +11804,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>0</v>
       </c>
@@ -11827,7 +11830,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>0</v>
       </c>
@@ -11853,7 +11856,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>0</v>
       </c>
@@ -11879,7 +11882,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>0</v>
       </c>
@@ -11905,7 +11908,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>0</v>
       </c>
@@ -11931,7 +11934,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>0</v>
       </c>
@@ -11957,7 +11960,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>0</v>
       </c>
@@ -11983,7 +11986,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>0</v>
       </c>
@@ -12009,7 +12012,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>0</v>
       </c>
@@ -12035,7 +12038,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>0</v>
       </c>
@@ -12061,7 +12064,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>0</v>
       </c>
@@ -12087,7 +12090,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>0</v>
       </c>
@@ -12113,7 +12116,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>0</v>
       </c>
@@ -12139,7 +12142,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>0</v>
       </c>
@@ -12165,7 +12168,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>0</v>
       </c>
@@ -12191,7 +12194,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>0</v>
       </c>
@@ -12235,7 +12238,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>0</v>
       </c>
@@ -12261,7 +12264,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>0</v>
       </c>
@@ -12287,7 +12290,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>0</v>
       </c>
@@ -12313,7 +12316,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>0</v>
       </c>
@@ -12339,7 +12342,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>0</v>
       </c>
@@ -12365,7 +12368,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>0</v>
       </c>
@@ -12391,7 +12394,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>0</v>
       </c>
@@ -12417,7 +12420,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>0</v>
       </c>

--- a/data-migration/xlsx_1900-/1901_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1901_Sommer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3598456-A5A0-4D7C-8827-36099C9CC479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2C72B0-6B32-40B1-A60F-504D44087681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="1023">
   <si>
     <t>1901</t>
   </si>
@@ -2729,9 +2729,6 @@
     <t>schmiedel_p</t>
   </si>
   <si>
-    <t>kappeler_a</t>
-  </si>
-  <si>
     <t>rueegg_a</t>
   </si>
   <si>
@@ -2741,9 +2738,6 @@
     <t>christ_p</t>
   </si>
   <si>
-    <t>vonschulthessrechberg_g</t>
-  </si>
-  <si>
     <t>Rektor</t>
   </si>
   <si>
@@ -2816,9 +2810,6 @@
     <t>buehler_a</t>
   </si>
   <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
     <t>gaule_j</t>
   </si>
   <si>
@@ -2828,9 +2819,6 @@
     <t>schulthess_w</t>
   </si>
   <si>
-    <t>wyss_o</t>
-  </si>
-  <si>
     <t>silberschmidt _w</t>
   </si>
   <si>
@@ -2846,9 +2834,6 @@
     <t>seitz_j</t>
   </si>
   <si>
-    <t>vonwyss_h1</t>
-  </si>
-  <si>
     <t>eichhorst_h</t>
   </si>
   <si>
@@ -2879,9 +2864,6 @@
     <t>heuss_e</t>
   </si>
   <si>
-    <t>kroenlein_u</t>
-  </si>
-  <si>
     <t>schlatter_k</t>
   </si>
   <si>
@@ -2897,9 +2879,6 @@
     <t>wyder_t</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>bleuler_e</t>
   </si>
   <si>
@@ -2918,9 +2897,6 @@
     <t>rohrer_f</t>
   </si>
   <si>
-    <t>maier_hw</t>
-  </si>
-  <si>
     <t>meumann_e</t>
   </si>
   <si>
@@ -2978,9 +2954,6 @@
     <t>morel_l</t>
   </si>
   <si>
-    <t>betz_lp</t>
-  </si>
-  <si>
     <t>billeter_g</t>
   </si>
   <si>
@@ -3059,9 +3032,6 @@
     <t>heuscher_j</t>
   </si>
   <si>
-    <t>standfuss_m</t>
-  </si>
-  <si>
     <t>hescheler_k</t>
   </si>
   <si>
@@ -3099,6 +3069,39 @@
   </si>
   <si>
     <t>HP</t>
+  </si>
+  <si>
+    <t>maier_hg</t>
+  </si>
+  <si>
+    <t>betz_l</t>
+  </si>
+  <si>
+    <t>kappeler_ga</t>
+  </si>
+  <si>
+    <t>meyer-rueegg_h</t>
+  </si>
+  <si>
+    <t>kroenlein_ru</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>schulthess_rg</t>
+  </si>
+  <si>
+    <t>wyss_h</t>
+  </si>
+  <si>
+    <t>wyss-kienast_o</t>
+  </si>
+  <si>
+    <t>standfuss_mr</t>
+  </si>
+  <si>
+    <t>silberschmidt_w</t>
   </si>
 </sst>
 </file>
@@ -3147,7 +3150,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3451,11 +3454,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="G70" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="30.5546875" customWidth="1"/>
     <col min="6" max="6" width="123" customWidth="1"/>
@@ -3476,7 +3479,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -3505,7 +3508,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -3534,7 +3537,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -3546,7 +3549,7 @@
         <v>895</v>
       </c>
       <c r="I3" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3560,7 +3563,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -3572,7 +3575,7 @@
         <v>895</v>
       </c>
       <c r="I4" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3586,7 +3589,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -3598,7 +3601,7 @@
         <v>896</v>
       </c>
       <c r="I5" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3612,7 +3615,7 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -3624,7 +3627,7 @@
         <v>897</v>
       </c>
       <c r="I6" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3638,7 +3641,7 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -3650,7 +3653,7 @@
         <v>897</v>
       </c>
       <c r="I7" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3664,7 +3667,7 @@
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -3676,7 +3679,7 @@
         <v>897</v>
       </c>
       <c r="I8" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3690,7 +3693,7 @@
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F9" t="s">
         <v>27</v>
@@ -3702,7 +3705,7 @@
         <v>897</v>
       </c>
       <c r="I9" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3716,7 +3719,7 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
@@ -3725,10 +3728,10 @@
         <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>898</v>
+        <v>1014</v>
       </c>
       <c r="I10" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -3742,7 +3745,7 @@
         <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F11" t="s">
         <v>33</v>
@@ -3751,10 +3754,10 @@
         <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="I11" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3768,7 +3771,7 @@
         <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F12" t="s">
         <v>36</v>
@@ -3777,10 +3780,10 @@
         <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="I12" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -3794,7 +3797,7 @@
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F13" t="s">
         <v>834</v>
@@ -3803,10 +3806,10 @@
         <v>39</v>
       </c>
       <c r="H13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I13" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -3820,7 +3823,7 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F14" t="s">
         <v>41</v>
@@ -3829,10 +3832,10 @@
         <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I14" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -3846,7 +3849,7 @@
         <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F15" t="s">
         <v>43</v>
@@ -3855,13 +3858,13 @@
         <v>44</v>
       </c>
       <c r="H15" t="s">
+        <v>900</v>
+      </c>
+      <c r="I15" t="s">
+        <v>902</v>
+      </c>
+      <c r="J15" t="s">
         <v>901</v>
-      </c>
-      <c r="I15" t="s">
-        <v>904</v>
-      </c>
-      <c r="J15" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -3875,7 +3878,7 @@
         <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F16" t="s">
         <v>845</v>
@@ -3884,13 +3887,13 @@
         <v>4</v>
       </c>
       <c r="H16" t="s">
+        <v>900</v>
+      </c>
+      <c r="I16" t="s">
+        <v>902</v>
+      </c>
+      <c r="J16" t="s">
         <v>901</v>
-      </c>
-      <c r="I16" t="s">
-        <v>904</v>
-      </c>
-      <c r="J16" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -3904,7 +3907,7 @@
         <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F17" t="s">
         <v>47</v>
@@ -3913,13 +3916,13 @@
         <v>48</v>
       </c>
       <c r="H17" t="s">
+        <v>900</v>
+      </c>
+      <c r="I17" t="s">
+        <v>902</v>
+      </c>
+      <c r="J17" t="s">
         <v>901</v>
-      </c>
-      <c r="I17" t="s">
-        <v>904</v>
-      </c>
-      <c r="J17" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -3933,7 +3936,7 @@
         <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F18" t="s">
         <v>50</v>
@@ -3942,13 +3945,13 @@
         <v>48</v>
       </c>
       <c r="H18" t="s">
+        <v>900</v>
+      </c>
+      <c r="I18" t="s">
+        <v>902</v>
+      </c>
+      <c r="J18" t="s">
         <v>901</v>
-      </c>
-      <c r="I18" t="s">
-        <v>904</v>
-      </c>
-      <c r="J18" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -3962,7 +3965,7 @@
         <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F19" t="s">
         <v>52</v>
@@ -3971,10 +3974,10 @@
         <v>53</v>
       </c>
       <c r="H19" t="s">
-        <v>902</v>
+        <v>1018</v>
       </c>
       <c r="I19" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -3988,7 +3991,7 @@
         <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F20" t="s">
         <v>55</v>
@@ -3997,10 +4000,10 @@
         <v>56</v>
       </c>
       <c r="H20" t="s">
-        <v>902</v>
+        <v>1018</v>
       </c>
       <c r="I20" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4014,7 +4017,7 @@
         <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F21" t="s">
         <v>847</v>
@@ -4026,7 +4029,7 @@
         <v>896</v>
       </c>
       <c r="I21" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -4040,7 +4043,7 @@
         <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F22" t="s">
         <v>835</v>
@@ -4049,10 +4052,10 @@
         <v>7</v>
       </c>
       <c r="H22" t="s">
-        <v>898</v>
+        <v>1014</v>
       </c>
       <c r="I22" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -4066,7 +4069,7 @@
         <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F23" t="s">
         <v>61</v>
@@ -4075,10 +4078,10 @@
         <v>37</v>
       </c>
       <c r="H23" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I23" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -4092,7 +4095,7 @@
         <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F24" t="s">
         <v>63</v>
@@ -4101,10 +4104,10 @@
         <v>64</v>
       </c>
       <c r="H24" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I24" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -4118,7 +4121,7 @@
         <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F25" t="s">
         <v>66</v>
@@ -4127,10 +4130,10 @@
         <v>7</v>
       </c>
       <c r="H25" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I25" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -4144,7 +4147,7 @@
         <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F26" t="s">
         <v>68</v>
@@ -4156,7 +4159,7 @@
         <v>895</v>
       </c>
       <c r="I26" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -4170,7 +4173,7 @@
         <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F27" t="s">
         <v>71</v>
@@ -4182,7 +4185,7 @@
         <v>896</v>
       </c>
       <c r="I27" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -4196,7 +4199,7 @@
         <v>72</v>
       </c>
       <c r="E28" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F28" t="s">
         <v>73</v>
@@ -4205,10 +4208,10 @@
         <v>74</v>
       </c>
       <c r="H28" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I28" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -4222,7 +4225,7 @@
         <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F29" t="s">
         <v>76</v>
@@ -4231,10 +4234,10 @@
         <v>25</v>
       </c>
       <c r="H29" t="s">
-        <v>902</v>
+        <v>1018</v>
       </c>
       <c r="I29" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -4248,7 +4251,7 @@
         <v>77</v>
       </c>
       <c r="E30" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F30" t="s">
         <v>78</v>
@@ -4257,13 +4260,13 @@
         <v>74</v>
       </c>
       <c r="H30" t="s">
+        <v>900</v>
+      </c>
+      <c r="I30" t="s">
+        <v>902</v>
+      </c>
+      <c r="J30" t="s">
         <v>901</v>
-      </c>
-      <c r="I30" t="s">
-        <v>904</v>
-      </c>
-      <c r="J30" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -4277,7 +4280,7 @@
         <v>79</v>
       </c>
       <c r="E31" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F31" t="s">
         <v>836</v>
@@ -4286,10 +4289,10 @@
         <v>846</v>
       </c>
       <c r="H31" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="I31" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -4303,7 +4306,7 @@
         <v>80</v>
       </c>
       <c r="E32" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F32" t="s">
         <v>81</v>
@@ -4312,10 +4315,10 @@
         <v>82</v>
       </c>
       <c r="H32" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I32" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -4329,7 +4332,7 @@
         <v>83</v>
       </c>
       <c r="E33" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F33" t="s">
         <v>84</v>
@@ -4338,10 +4341,10 @@
         <v>85</v>
       </c>
       <c r="H33" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="I33" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -4355,7 +4358,7 @@
         <v>86</v>
       </c>
       <c r="E34" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F34" t="s">
         <v>837</v>
@@ -4364,10 +4367,10 @@
         <v>87</v>
       </c>
       <c r="H34" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="I34" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -4381,7 +4384,7 @@
         <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F35" t="s">
         <v>89</v>
@@ -4390,10 +4393,10 @@
         <v>82</v>
       </c>
       <c r="H35" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="I35" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -4407,7 +4410,7 @@
         <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F36" t="s">
         <v>91</v>
@@ -4416,10 +4419,10 @@
         <v>92</v>
       </c>
       <c r="H36" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="I36" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -4433,7 +4436,7 @@
         <v>93</v>
       </c>
       <c r="E37" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F37" t="s">
         <v>94</v>
@@ -4442,10 +4445,10 @@
         <v>95</v>
       </c>
       <c r="H37" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="I37" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -4459,7 +4462,7 @@
         <v>96</v>
       </c>
       <c r="E38" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F38" t="s">
         <v>97</v>
@@ -4468,10 +4471,10 @@
         <v>98</v>
       </c>
       <c r="H38" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="I38" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -4485,7 +4488,7 @@
         <v>99</v>
       </c>
       <c r="E39" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F39" t="s">
         <v>838</v>
@@ -4494,10 +4497,10 @@
         <v>100</v>
       </c>
       <c r="H39" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="I39" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -4511,7 +4514,7 @@
         <v>101</v>
       </c>
       <c r="E40" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F40" t="s">
         <v>102</v>
@@ -4520,10 +4523,10 @@
         <v>103</v>
       </c>
       <c r="H40" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I40" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -4537,7 +4540,7 @@
         <v>104</v>
       </c>
       <c r="E41" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F41" t="s">
         <v>105</v>
@@ -4546,10 +4549,10 @@
         <v>74</v>
       </c>
       <c r="H41" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="I41" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -4563,7 +4566,7 @@
         <v>106</v>
       </c>
       <c r="E42" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F42" t="s">
         <v>107</v>
@@ -4572,10 +4575,10 @@
         <v>108</v>
       </c>
       <c r="H42" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="I42" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -4589,7 +4592,7 @@
         <v>109</v>
       </c>
       <c r="E43" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F43" t="s">
         <v>110</v>
@@ -4598,10 +4601,10 @@
         <v>111</v>
       </c>
       <c r="H43" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I43" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -4615,7 +4618,7 @@
         <v>112</v>
       </c>
       <c r="E44" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F44" t="s">
         <v>113</v>
@@ -4624,10 +4627,10 @@
         <v>841</v>
       </c>
       <c r="H44" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="I44" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -4641,7 +4644,7 @@
         <v>114</v>
       </c>
       <c r="E45" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F45" t="s">
         <v>115</v>
@@ -4650,10 +4653,10 @@
         <v>116</v>
       </c>
       <c r="H45" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="I45" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -4667,7 +4670,7 @@
         <v>117</v>
       </c>
       <c r="E46" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F46" t="s">
         <v>839</v>
@@ -4676,10 +4679,10 @@
         <v>118</v>
       </c>
       <c r="H46" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="I46" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -4693,7 +4696,7 @@
         <v>119</v>
       </c>
       <c r="E47" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F47" t="s">
         <v>120</v>
@@ -4702,10 +4705,10 @@
         <v>840</v>
       </c>
       <c r="H47" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="I47" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -4719,7 +4722,7 @@
         <v>121</v>
       </c>
       <c r="E48" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F48" t="s">
         <v>122</v>
@@ -4728,10 +4731,10 @@
         <v>123</v>
       </c>
       <c r="H48" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="I48" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J48" t="s">
         <v>893</v>
@@ -4748,7 +4751,7 @@
         <v>124</v>
       </c>
       <c r="E49" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F49" t="s">
         <v>125</v>
@@ -4757,10 +4760,10 @@
         <v>126</v>
       </c>
       <c r="H49" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="I49" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -4774,7 +4777,7 @@
         <v>127</v>
       </c>
       <c r="E50" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F50" t="s">
         <v>128</v>
@@ -4783,10 +4786,10 @@
         <v>95</v>
       </c>
       <c r="H50" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="I50" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -4800,7 +4803,7 @@
         <v>129</v>
       </c>
       <c r="E51" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F51" t="s">
         <v>130</v>
@@ -4809,10 +4812,10 @@
         <v>98</v>
       </c>
       <c r="H51" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="I51" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -4826,7 +4829,7 @@
         <v>131</v>
       </c>
       <c r="E52" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F52" t="s">
         <v>132</v>
@@ -4835,10 +4838,10 @@
         <v>133</v>
       </c>
       <c r="H52" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="I52" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J52" t="s">
         <v>893</v>
@@ -4855,7 +4858,7 @@
         <v>134</v>
       </c>
       <c r="E53" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F53" t="s">
         <v>135</v>
@@ -4864,10 +4867,10 @@
         <v>136</v>
       </c>
       <c r="H53" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="I53" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J53" t="s">
         <v>893</v>
@@ -4884,7 +4887,7 @@
         <v>137</v>
       </c>
       <c r="E54" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F54" t="s">
         <v>138</v>
@@ -4893,10 +4896,10 @@
         <v>139</v>
       </c>
       <c r="H54" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="I54" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -4910,7 +4913,7 @@
         <v>140</v>
       </c>
       <c r="E55" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F55" t="s">
         <v>141</v>
@@ -4919,10 +4922,10 @@
         <v>142</v>
       </c>
       <c r="H55" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="I55" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -4936,7 +4939,7 @@
         <v>143</v>
       </c>
       <c r="E56" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F56" t="s">
         <v>144</v>
@@ -4945,10 +4948,10 @@
         <v>145</v>
       </c>
       <c r="H56" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="I56" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -4962,7 +4965,7 @@
         <v>146</v>
       </c>
       <c r="E57" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F57" t="s">
         <v>147</v>
@@ -4971,10 +4974,10 @@
         <v>148</v>
       </c>
       <c r="H57" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="I57" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -4988,7 +4991,7 @@
         <v>149</v>
       </c>
       <c r="E58" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F58" t="s">
         <v>150</v>
@@ -4997,10 +5000,10 @@
         <v>151</v>
       </c>
       <c r="H58" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I58" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -5014,7 +5017,7 @@
         <v>152</v>
       </c>
       <c r="E59" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F59" t="s">
         <v>153</v>
@@ -5023,10 +5026,10 @@
         <v>22</v>
       </c>
       <c r="H59" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I59" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -5040,7 +5043,7 @@
         <v>154</v>
       </c>
       <c r="E60" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F60" t="s">
         <v>155</v>
@@ -5049,10 +5052,10 @@
         <v>156</v>
       </c>
       <c r="H60" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="I60" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -5066,7 +5069,7 @@
         <v>157</v>
       </c>
       <c r="E61" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F61" t="s">
         <v>158</v>
@@ -5075,10 +5078,10 @@
         <v>151</v>
       </c>
       <c r="H61" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="I61" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -5092,7 +5095,7 @@
         <v>159</v>
       </c>
       <c r="E62" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F62" t="s">
         <v>160</v>
@@ -5101,10 +5104,10 @@
         <v>161</v>
       </c>
       <c r="H62" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="I62" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -5118,7 +5121,7 @@
         <v>162</v>
       </c>
       <c r="E63" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F63" t="s">
         <v>163</v>
@@ -5127,10 +5130,10 @@
         <v>164</v>
       </c>
       <c r="H63" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="I63" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -5144,7 +5147,7 @@
         <v>165</v>
       </c>
       <c r="E64" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F64" t="s">
         <v>166</v>
@@ -5153,10 +5156,10 @@
         <v>25</v>
       </c>
       <c r="H64" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="I64" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -5170,7 +5173,7 @@
         <v>167</v>
       </c>
       <c r="E65" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F65" t="s">
         <v>168</v>
@@ -5179,10 +5182,10 @@
         <v>169</v>
       </c>
       <c r="H65" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="I65" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -5196,7 +5199,7 @@
         <v>170</v>
       </c>
       <c r="E66" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F66" t="s">
         <v>171</v>
@@ -5205,10 +5208,10 @@
         <v>172</v>
       </c>
       <c r="H66" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I66" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J66" t="s">
         <v>893</v>
@@ -5225,7 +5228,7 @@
         <v>173</v>
       </c>
       <c r="E67" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F67" t="s">
         <v>174</v>
@@ -5234,16 +5237,16 @@
         <v>175</v>
       </c>
       <c r="H67" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I67" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J67" t="s">
         <v>893</v>
       </c>
       <c r="K67" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="L67" t="s">
         <v>892</v>
@@ -5260,7 +5263,7 @@
         <v>176</v>
       </c>
       <c r="E68" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F68" t="s">
         <v>177</v>
@@ -5269,10 +5272,10 @@
         <v>178</v>
       </c>
       <c r="H68" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I68" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J68" t="s">
         <v>893</v>
@@ -5289,7 +5292,7 @@
         <v>179</v>
       </c>
       <c r="E69" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F69" t="s">
         <v>180</v>
@@ -5298,16 +5301,16 @@
         <v>181</v>
       </c>
       <c r="H69" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I69" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J69" t="s">
         <v>893</v>
       </c>
       <c r="K69" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="L69" t="s">
         <v>892</v>
@@ -5324,7 +5327,7 @@
         <v>182</v>
       </c>
       <c r="E70" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F70" t="s">
         <v>183</v>
@@ -5333,25 +5336,25 @@
         <v>184</v>
       </c>
       <c r="H70" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I70" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J70" t="s">
         <v>893</v>
       </c>
       <c r="K70" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="L70" t="s">
         <v>892</v>
       </c>
       <c r="M70" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N70" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -5365,7 +5368,7 @@
         <v>185</v>
       </c>
       <c r="E71" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F71" t="s">
         <v>186</v>
@@ -5374,7 +5377,7 @@
         <v>187</v>
       </c>
       <c r="H71" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="I71" t="s">
         <v>892</v>
@@ -5391,7 +5394,7 @@
         <v>188</v>
       </c>
       <c r="E72" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F72" t="s">
         <v>189</v>
@@ -5400,7 +5403,7 @@
         <v>190</v>
       </c>
       <c r="H72" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="I72" t="s">
         <v>892</v>
@@ -5417,7 +5420,7 @@
         <v>191</v>
       </c>
       <c r="E73" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F73" t="s">
         <v>192</v>
@@ -5426,10 +5429,10 @@
         <v>193</v>
       </c>
       <c r="H73" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="I73" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -5443,7 +5446,7 @@
         <v>194</v>
       </c>
       <c r="E74" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F74" t="s">
         <v>195</v>
@@ -5452,10 +5455,10 @@
         <v>48</v>
       </c>
       <c r="H74" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="I74" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -5469,7 +5472,7 @@
         <v>196</v>
       </c>
       <c r="E75" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F75" t="s">
         <v>197</v>
@@ -5478,7 +5481,7 @@
         <v>198</v>
       </c>
       <c r="H75" t="s">
-        <v>927</v>
+        <v>1017</v>
       </c>
       <c r="I75" t="s">
         <v>892</v>
@@ -5495,7 +5498,7 @@
         <v>199</v>
       </c>
       <c r="E76" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F76" t="s">
         <v>200</v>
@@ -5504,7 +5507,7 @@
         <v>184</v>
       </c>
       <c r="H76" t="s">
-        <v>927</v>
+        <v>1017</v>
       </c>
       <c r="I76" t="s">
         <v>892</v>
@@ -5521,7 +5524,7 @@
         <v>201</v>
       </c>
       <c r="E77" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F77" t="s">
         <v>202</v>
@@ -5530,10 +5533,10 @@
         <v>82</v>
       </c>
       <c r="H77" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="I77" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -5547,7 +5550,7 @@
         <v>203</v>
       </c>
       <c r="E78" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F78" t="s">
         <v>204</v>
@@ -5556,10 +5559,10 @@
         <v>205</v>
       </c>
       <c r="H78" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="I78" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
@@ -5573,7 +5576,7 @@
         <v>206</v>
       </c>
       <c r="E79" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F79" t="s">
         <v>207</v>
@@ -5582,10 +5585,10 @@
         <v>208</v>
       </c>
       <c r="H79" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="I79" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
@@ -5599,7 +5602,7 @@
         <v>209</v>
       </c>
       <c r="E80" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F80" t="s">
         <v>210</v>
@@ -5608,10 +5611,10 @@
         <v>211</v>
       </c>
       <c r="H80" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="I80" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -5625,7 +5628,7 @@
         <v>212</v>
       </c>
       <c r="E81" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F81" t="s">
         <v>213</v>
@@ -5634,10 +5637,10 @@
         <v>214</v>
       </c>
       <c r="H81" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="I81" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -5651,7 +5654,7 @@
         <v>215</v>
       </c>
       <c r="E82" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F82" t="s">
         <v>216</v>
@@ -5660,10 +5663,10 @@
         <v>4</v>
       </c>
       <c r="H82" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="I82" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -5677,7 +5680,7 @@
         <v>217</v>
       </c>
       <c r="E83" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F83" t="s">
         <v>842</v>
@@ -5686,10 +5689,10 @@
         <v>218</v>
       </c>
       <c r="H83" t="s">
-        <v>931</v>
+        <v>1020</v>
       </c>
       <c r="I83" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -5703,7 +5706,7 @@
         <v>219</v>
       </c>
       <c r="E84" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F84" t="s">
         <v>220</v>
@@ -5712,10 +5715,10 @@
         <v>221</v>
       </c>
       <c r="H84" t="s">
-        <v>931</v>
+        <v>1020</v>
       </c>
       <c r="I84" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -5729,7 +5732,7 @@
         <v>222</v>
       </c>
       <c r="E85" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F85" t="s">
         <v>223</v>
@@ -5738,10 +5741,10 @@
         <v>224</v>
       </c>
       <c r="H85" t="s">
-        <v>931</v>
+        <v>1020</v>
       </c>
       <c r="I85" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -5755,7 +5758,7 @@
         <v>225</v>
       </c>
       <c r="E86" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F86" t="s">
         <v>226</v>
@@ -5764,10 +5767,10 @@
         <v>4</v>
       </c>
       <c r="H86" t="s">
-        <v>932</v>
+        <v>1022</v>
       </c>
       <c r="I86" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -5781,7 +5784,7 @@
         <v>227</v>
       </c>
       <c r="E87" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F87" t="s">
         <v>228</v>
@@ -5790,10 +5793,10 @@
         <v>229</v>
       </c>
       <c r="H87" t="s">
-        <v>932</v>
+        <v>1022</v>
       </c>
       <c r="I87" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -5807,7 +5810,7 @@
         <v>230</v>
       </c>
       <c r="E88" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F88" t="s">
         <v>231</v>
@@ -5816,10 +5819,10 @@
         <v>232</v>
       </c>
       <c r="H88" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="I88" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -5833,7 +5836,7 @@
         <v>233</v>
       </c>
       <c r="E89" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F89" t="s">
         <v>234</v>
@@ -5842,10 +5845,10 @@
         <v>235</v>
       </c>
       <c r="H89" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="I89" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -5859,7 +5862,7 @@
         <v>236</v>
       </c>
       <c r="E90" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F90" t="s">
         <v>237</v>
@@ -5868,10 +5871,10 @@
         <v>238</v>
       </c>
       <c r="H90" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="I90" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -5885,7 +5888,7 @@
         <v>239</v>
       </c>
       <c r="E91" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F91" t="s">
         <v>240</v>
@@ -5894,10 +5897,10 @@
         <v>241</v>
       </c>
       <c r="H91" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="I91" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -5911,7 +5914,7 @@
         <v>242</v>
       </c>
       <c r="E92" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F92" t="s">
         <v>243</v>
@@ -5920,10 +5923,10 @@
         <v>244</v>
       </c>
       <c r="H92" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="I92" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -5937,7 +5940,7 @@
         <v>245</v>
       </c>
       <c r="E93" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F93" t="s">
         <v>871</v>
@@ -5946,10 +5949,10 @@
         <v>870</v>
       </c>
       <c r="H93" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="I93" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -5963,7 +5966,7 @@
         <v>246</v>
       </c>
       <c r="E94" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F94" t="s">
         <v>843</v>
@@ -5972,7 +5975,7 @@
         <v>4</v>
       </c>
       <c r="H94" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -5986,7 +5989,7 @@
         <v>247</v>
       </c>
       <c r="E95" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F95" t="s">
         <v>248</v>
@@ -5995,7 +5998,7 @@
         <v>133</v>
       </c>
       <c r="H95" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -6009,7 +6012,7 @@
         <v>249</v>
       </c>
       <c r="E96" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F96" t="s">
         <v>250</v>
@@ -6018,7 +6021,7 @@
         <v>844</v>
       </c>
       <c r="H96" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -6032,7 +6035,7 @@
         <v>251</v>
       </c>
       <c r="E97" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F97" t="s">
         <v>252</v>
@@ -6041,7 +6044,7 @@
         <v>655</v>
       </c>
       <c r="H97" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -6055,7 +6058,7 @@
         <v>253</v>
       </c>
       <c r="E98" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F98" t="s">
         <v>254</v>
@@ -6064,10 +6067,10 @@
         <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="I98" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -6081,7 +6084,7 @@
         <v>255</v>
       </c>
       <c r="E99" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F99" t="s">
         <v>848</v>
@@ -6090,10 +6093,10 @@
         <v>849</v>
       </c>
       <c r="H99" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="I99" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -6107,7 +6110,7 @@
         <v>256</v>
       </c>
       <c r="E100" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F100" t="s">
         <v>257</v>
@@ -6116,10 +6119,10 @@
         <v>4</v>
       </c>
       <c r="H100" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="I100" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -6133,7 +6136,7 @@
         <v>258</v>
       </c>
       <c r="E101" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F101" t="s">
         <v>259</v>
@@ -6142,7 +6145,7 @@
         <v>260</v>
       </c>
       <c r="H101" t="s">
-        <v>937</v>
+        <v>1019</v>
       </c>
       <c r="I101" t="s">
         <v>892</v>
@@ -6159,7 +6162,7 @@
         <v>261</v>
       </c>
       <c r="E102" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F102" t="s">
         <v>262</v>
@@ -6168,7 +6171,7 @@
         <v>4</v>
       </c>
       <c r="H102" t="s">
-        <v>937</v>
+        <v>1019</v>
       </c>
       <c r="I102" t="s">
         <v>892</v>
@@ -6185,7 +6188,7 @@
         <v>263</v>
       </c>
       <c r="E103" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F103" t="s">
         <v>264</v>
@@ -6194,10 +6197,10 @@
         <v>265</v>
       </c>
       <c r="H103" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="I103" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -6211,7 +6214,7 @@
         <v>266</v>
       </c>
       <c r="E104" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F104" t="s">
         <v>267</v>
@@ -6220,10 +6223,10 @@
         <v>268</v>
       </c>
       <c r="H104" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="I104" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -6237,7 +6240,7 @@
         <v>269</v>
       </c>
       <c r="E105" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F105" t="s">
         <v>270</v>
@@ -6246,10 +6249,10 @@
         <v>271</v>
       </c>
       <c r="H105" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="I105" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -6263,7 +6266,7 @@
         <v>272</v>
       </c>
       <c r="E106" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F106" t="s">
         <v>273</v>
@@ -6272,10 +6275,10 @@
         <v>34</v>
       </c>
       <c r="H106" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="I106" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -6289,7 +6292,7 @@
         <v>274</v>
       </c>
       <c r="E107" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F107" t="s">
         <v>275</v>
@@ -6298,10 +6301,10 @@
         <v>276</v>
       </c>
       <c r="H107" t="s">
-        <v>931</v>
+        <v>1020</v>
       </c>
       <c r="I107" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -6315,7 +6318,7 @@
         <v>277</v>
       </c>
       <c r="E108" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F108" t="s">
         <v>278</v>
@@ -6324,10 +6327,10 @@
         <v>48</v>
       </c>
       <c r="H108" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="I108" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -6341,7 +6344,7 @@
         <v>279</v>
       </c>
       <c r="E109" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F109" t="s">
         <v>280</v>
@@ -6350,10 +6353,10 @@
         <v>48</v>
       </c>
       <c r="H109" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="I109" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -6367,7 +6370,7 @@
         <v>281</v>
       </c>
       <c r="E110" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F110" t="s">
         <v>282</v>
@@ -6376,10 +6379,10 @@
         <v>4</v>
       </c>
       <c r="H110" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="I110" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -6393,7 +6396,7 @@
         <v>283</v>
       </c>
       <c r="E111" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F111" t="s">
         <v>284</v>
@@ -6402,10 +6405,10 @@
         <v>285</v>
       </c>
       <c r="H111" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="I111" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -6419,7 +6422,7 @@
         <v>286</v>
       </c>
       <c r="E112" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F112" t="s">
         <v>287</v>
@@ -6428,10 +6431,10 @@
         <v>34</v>
       </c>
       <c r="H112" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="I112" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -6445,7 +6448,7 @@
         <v>288</v>
       </c>
       <c r="E113" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F113" t="s">
         <v>289</v>
@@ -6454,7 +6457,7 @@
         <v>290</v>
       </c>
       <c r="H113" t="s">
-        <v>927</v>
+        <v>1017</v>
       </c>
       <c r="I113" t="s">
         <v>892</v>
@@ -6471,7 +6474,7 @@
         <v>291</v>
       </c>
       <c r="E114" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F114" t="s">
         <v>292</v>
@@ -6480,7 +6483,7 @@
         <v>293</v>
       </c>
       <c r="H114" t="s">
-        <v>927</v>
+        <v>1017</v>
       </c>
       <c r="I114" t="s">
         <v>892</v>
@@ -6497,7 +6500,7 @@
         <v>294</v>
       </c>
       <c r="E115" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F115" t="s">
         <v>295</v>
@@ -6506,7 +6509,7 @@
         <v>296</v>
       </c>
       <c r="H115" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="I115" t="s">
         <v>892</v>
@@ -6523,7 +6526,7 @@
         <v>297</v>
       </c>
       <c r="E116" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F116" t="s">
         <v>298</v>
@@ -6532,7 +6535,7 @@
         <v>299</v>
       </c>
       <c r="H116" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="I116" t="s">
         <v>892</v>
@@ -6549,7 +6552,7 @@
         <v>300</v>
       </c>
       <c r="E117" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F117" t="s">
         <v>301</v>
@@ -6558,7 +6561,7 @@
         <v>302</v>
       </c>
       <c r="H117" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="I117" t="s">
         <v>892</v>
@@ -6575,7 +6578,7 @@
         <v>303</v>
       </c>
       <c r="E118" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F118" t="s">
         <v>304</v>
@@ -6584,10 +6587,10 @@
         <v>48</v>
       </c>
       <c r="H118" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="I118" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -6601,7 +6604,7 @@
         <v>305</v>
       </c>
       <c r="E119" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F119" t="s">
         <v>306</v>
@@ -6610,10 +6613,10 @@
         <v>48</v>
       </c>
       <c r="H119" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="I119" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -6627,7 +6630,7 @@
         <v>307</v>
       </c>
       <c r="E120" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F120" t="s">
         <v>308</v>
@@ -6636,10 +6639,10 @@
         <v>34</v>
       </c>
       <c r="H120" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="I120" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -6653,7 +6656,7 @@
         <v>309</v>
       </c>
       <c r="E121" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F121" t="s">
         <v>310</v>
@@ -6662,10 +6665,10 @@
         <v>48</v>
       </c>
       <c r="H121" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="I121" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -6679,7 +6682,7 @@
         <v>311</v>
       </c>
       <c r="E122" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F122" t="s">
         <v>312</v>
@@ -6688,10 +6691,10 @@
         <v>313</v>
       </c>
       <c r="H122" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="I122" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -6705,7 +6708,7 @@
         <v>314</v>
       </c>
       <c r="E123" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F123" t="s">
         <v>315</v>
@@ -6714,10 +6717,10 @@
         <v>4</v>
       </c>
       <c r="H123" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="I123" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -6731,7 +6734,7 @@
         <v>316</v>
       </c>
       <c r="E124" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F124" t="s">
         <v>317</v>
@@ -6740,10 +6743,10 @@
         <v>48</v>
       </c>
       <c r="H124" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="I124" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -6757,7 +6760,7 @@
         <v>318</v>
       </c>
       <c r="E125" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F125" t="s">
         <v>319</v>
@@ -6766,10 +6769,10 @@
         <v>320</v>
       </c>
       <c r="H125" t="s">
-        <v>948</v>
+        <v>1016</v>
       </c>
       <c r="I125" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -6783,7 +6786,7 @@
         <v>321</v>
       </c>
       <c r="E126" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F126" t="s">
         <v>322</v>
@@ -6792,10 +6795,10 @@
         <v>323</v>
       </c>
       <c r="H126" t="s">
-        <v>948</v>
+        <v>1016</v>
       </c>
       <c r="I126" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -6809,7 +6812,7 @@
         <v>324</v>
       </c>
       <c r="E127" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F127" t="s">
         <v>325</v>
@@ -6818,10 +6821,10 @@
         <v>326</v>
       </c>
       <c r="H127" t="s">
-        <v>948</v>
+        <v>1016</v>
       </c>
       <c r="I127" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -6835,7 +6838,7 @@
         <v>327</v>
       </c>
       <c r="E128" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F128" t="s">
         <v>872</v>
@@ -6844,7 +6847,7 @@
         <v>4</v>
       </c>
       <c r="H128" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="I128" t="s">
         <v>892</v>
@@ -6861,7 +6864,7 @@
         <v>328</v>
       </c>
       <c r="E129" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F129" t="s">
         <v>873</v>
@@ -6870,7 +6873,7 @@
         <v>329</v>
       </c>
       <c r="H129" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="I129" t="s">
         <v>892</v>
@@ -6887,7 +6890,7 @@
         <v>330</v>
       </c>
       <c r="E130" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F130" t="s">
         <v>331</v>
@@ -6896,7 +6899,7 @@
         <v>332</v>
       </c>
       <c r="H130" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="I130" t="s">
         <v>892</v>
@@ -6913,7 +6916,7 @@
         <v>333</v>
       </c>
       <c r="E131" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F131" t="s">
         <v>334</v>
@@ -6922,10 +6925,10 @@
         <v>4</v>
       </c>
       <c r="H131" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="I131" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -6939,7 +6942,7 @@
         <v>335</v>
       </c>
       <c r="E132" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F132" t="s">
         <v>850</v>
@@ -6948,10 +6951,10 @@
         <v>7</v>
       </c>
       <c r="H132" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="I132" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -6965,7 +6968,7 @@
         <v>336</v>
       </c>
       <c r="E133" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F133" t="s">
         <v>337</v>
@@ -6974,10 +6977,10 @@
         <v>4</v>
       </c>
       <c r="H133" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="I133" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -6991,7 +6994,7 @@
         <v>338</v>
       </c>
       <c r="E134" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F134" t="s">
         <v>339</v>
@@ -7000,10 +7003,10 @@
         <v>340</v>
       </c>
       <c r="H134" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="I134" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -7017,7 +7020,7 @@
         <v>341</v>
       </c>
       <c r="E135" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F135" t="s">
         <v>342</v>
@@ -7026,10 +7029,10 @@
         <v>343</v>
       </c>
       <c r="H135" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="I135" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -7043,7 +7046,7 @@
         <v>344</v>
       </c>
       <c r="E136" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F136" t="s">
         <v>345</v>
@@ -7052,10 +7055,10 @@
         <v>302</v>
       </c>
       <c r="H136" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="I136" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -7069,7 +7072,7 @@
         <v>346</v>
       </c>
       <c r="E137" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F137" t="s">
         <v>875</v>
@@ -7078,10 +7081,10 @@
         <v>874</v>
       </c>
       <c r="H137" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="I137" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -7095,7 +7098,7 @@
         <v>347</v>
       </c>
       <c r="E138" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F138" t="s">
         <v>348</v>
@@ -7104,10 +7107,10 @@
         <v>877</v>
       </c>
       <c r="H138" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="I138" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -7121,7 +7124,7 @@
         <v>349</v>
       </c>
       <c r="E139" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F139" t="s">
         <v>350</v>
@@ -7130,10 +7133,10 @@
         <v>351</v>
       </c>
       <c r="H139" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="I139" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -7147,7 +7150,7 @@
         <v>352</v>
       </c>
       <c r="E140" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F140" t="s">
         <v>353</v>
@@ -7156,10 +7159,10 @@
         <v>164</v>
       </c>
       <c r="H140" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="I140" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -7173,7 +7176,7 @@
         <v>354</v>
       </c>
       <c r="E141" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F141" t="s">
         <v>876</v>
@@ -7182,10 +7185,10 @@
         <v>355</v>
       </c>
       <c r="H141" t="s">
-        <v>954</v>
+        <v>1015</v>
       </c>
       <c r="I141" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -7199,7 +7202,7 @@
         <v>356</v>
       </c>
       <c r="E142" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F142" t="s">
         <v>357</v>
@@ -7208,10 +7211,10 @@
         <v>34</v>
       </c>
       <c r="H142" t="s">
-        <v>954</v>
+        <v>1015</v>
       </c>
       <c r="I142" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -7225,7 +7228,7 @@
         <v>358</v>
       </c>
       <c r="E143" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F143" t="s">
         <v>359</v>
@@ -7234,10 +7237,10 @@
         <v>360</v>
       </c>
       <c r="H143" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="I143" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -7251,7 +7254,7 @@
         <v>361</v>
       </c>
       <c r="E144" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F144" t="s">
         <v>362</v>
@@ -7260,10 +7263,10 @@
         <v>4</v>
       </c>
       <c r="H144" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="I144" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -7277,7 +7280,7 @@
         <v>363</v>
       </c>
       <c r="E145" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F145" t="s">
         <v>364</v>
@@ -7286,10 +7289,10 @@
         <v>365</v>
       </c>
       <c r="H145" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="I145" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -7303,7 +7306,7 @@
         <v>366</v>
       </c>
       <c r="E146" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F146" t="s">
         <v>367</v>
@@ -7312,7 +7315,7 @@
         <v>368</v>
       </c>
       <c r="H146" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="I146" t="s">
         <v>892</v>
@@ -7329,7 +7332,7 @@
         <v>369</v>
       </c>
       <c r="E147" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F147" t="s">
         <v>370</v>
@@ -7338,7 +7341,7 @@
         <v>371</v>
       </c>
       <c r="H147" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="I147" t="s">
         <v>892</v>
@@ -7355,7 +7358,7 @@
         <v>372</v>
       </c>
       <c r="E148" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F148" t="s">
         <v>373</v>
@@ -7364,10 +7367,10 @@
         <v>374</v>
       </c>
       <c r="H148" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="I148" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -7381,7 +7384,7 @@
         <v>375</v>
       </c>
       <c r="E149" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F149" t="s">
         <v>376</v>
@@ -7390,10 +7393,10 @@
         <v>377</v>
       </c>
       <c r="H149" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="I149" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -7407,7 +7410,7 @@
         <v>378</v>
       </c>
       <c r="E150" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F150" t="s">
         <v>379</v>
@@ -7416,10 +7419,10 @@
         <v>380</v>
       </c>
       <c r="H150" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="I150" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -7433,7 +7436,7 @@
         <v>381</v>
       </c>
       <c r="E151" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F151" t="s">
         <v>382</v>
@@ -7442,10 +7445,10 @@
         <v>383</v>
       </c>
       <c r="H151" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="I151" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -7459,7 +7462,7 @@
         <v>384</v>
       </c>
       <c r="E152" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F152" t="s">
         <v>385</v>
@@ -7468,10 +7471,10 @@
         <v>386</v>
       </c>
       <c r="H152" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="I152" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -7485,7 +7488,7 @@
         <v>387</v>
       </c>
       <c r="E153" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F153" t="s">
         <v>388</v>
@@ -7494,7 +7497,7 @@
         <v>389</v>
       </c>
       <c r="H153" t="s">
-        <v>961</v>
+        <v>1012</v>
       </c>
       <c r="I153" t="s">
         <v>892</v>
@@ -7511,7 +7514,7 @@
         <v>390</v>
       </c>
       <c r="E154" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F154" t="s">
         <v>391</v>
@@ -7520,10 +7523,10 @@
         <v>392</v>
       </c>
       <c r="H154" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="I154" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -7537,7 +7540,7 @@
         <v>393</v>
       </c>
       <c r="E155" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F155" t="s">
         <v>878</v>
@@ -7546,10 +7549,10 @@
         <v>394</v>
       </c>
       <c r="H155" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="I155" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -7563,7 +7566,7 @@
         <v>395</v>
       </c>
       <c r="E156" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F156" t="s">
         <v>879</v>
@@ -7572,10 +7575,10 @@
         <v>394</v>
       </c>
       <c r="H156" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="I156" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -7589,7 +7592,7 @@
         <v>396</v>
       </c>
       <c r="E157" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F157" t="s">
         <v>880</v>
@@ -7598,10 +7601,10 @@
         <v>397</v>
       </c>
       <c r="H157" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="I157" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -7615,7 +7618,7 @@
         <v>398</v>
       </c>
       <c r="E158" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F158" t="s">
         <v>881</v>
@@ -7624,10 +7627,10 @@
         <v>399</v>
       </c>
       <c r="H158" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="I158" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -7641,7 +7644,7 @@
         <v>400</v>
       </c>
       <c r="E159" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F159" t="s">
         <v>401</v>
@@ -7650,10 +7653,10 @@
         <v>402</v>
       </c>
       <c r="H159" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="I159" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -7667,7 +7670,7 @@
         <v>403</v>
       </c>
       <c r="E160" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F160" t="s">
         <v>404</v>
@@ -7676,10 +7679,10 @@
         <v>405</v>
       </c>
       <c r="H160" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="I160" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -7693,7 +7696,7 @@
         <v>406</v>
       </c>
       <c r="E161" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F161" t="s">
         <v>407</v>
@@ -7702,7 +7705,7 @@
         <v>408</v>
       </c>
       <c r="H161" t="s">
-        <v>961</v>
+        <v>1012</v>
       </c>
       <c r="I161" t="s">
         <v>892</v>
@@ -7719,7 +7722,7 @@
         <v>409</v>
       </c>
       <c r="E162" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F162" t="s">
         <v>410</v>
@@ -7728,10 +7731,10 @@
         <v>411</v>
       </c>
       <c r="H162" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="I162" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -7745,7 +7748,7 @@
         <v>412</v>
       </c>
       <c r="E163" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F163" t="s">
         <v>413</v>
@@ -7754,7 +7757,7 @@
         <v>260</v>
       </c>
       <c r="H163" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="I163" t="s">
         <v>892</v>
@@ -7771,7 +7774,7 @@
         <v>414</v>
       </c>
       <c r="E164" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F164" t="s">
         <v>415</v>
@@ -7780,10 +7783,10 @@
         <v>416</v>
       </c>
       <c r="H164" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="I164" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -7797,7 +7800,7 @@
         <v>417</v>
       </c>
       <c r="E165" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F165" t="s">
         <v>418</v>
@@ -7806,10 +7809,10 @@
         <v>260</v>
       </c>
       <c r="H165" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="I165" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -7823,7 +7826,7 @@
         <v>419</v>
       </c>
       <c r="E166" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F166" t="s">
         <v>420</v>
@@ -7832,10 +7835,10 @@
         <v>421</v>
       </c>
       <c r="H166" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="I166" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -7849,7 +7852,7 @@
         <v>422</v>
       </c>
       <c r="E167" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F167" t="s">
         <v>423</v>
@@ -7858,7 +7861,7 @@
         <v>424</v>
       </c>
       <c r="H167" t="s">
-        <v>961</v>
+        <v>1012</v>
       </c>
       <c r="I167" t="s">
         <v>892</v>
@@ -7875,7 +7878,7 @@
         <v>425</v>
       </c>
       <c r="E168" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F168" t="s">
         <v>426</v>
@@ -7884,10 +7887,10 @@
         <v>427</v>
       </c>
       <c r="H168" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="I168" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -7901,7 +7904,7 @@
         <v>428</v>
       </c>
       <c r="E169" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F169" t="s">
         <v>429</v>
@@ -7910,10 +7913,10 @@
         <v>430</v>
       </c>
       <c r="H169" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="I169" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -7927,7 +7930,7 @@
         <v>431</v>
       </c>
       <c r="E170" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F170" t="s">
         <v>432</v>
@@ -7936,7 +7939,7 @@
         <v>271</v>
       </c>
       <c r="H170" t="s">
-        <v>961</v>
+        <v>1012</v>
       </c>
       <c r="I170" t="s">
         <v>892</v>
@@ -7953,7 +7956,7 @@
         <v>433</v>
       </c>
       <c r="E171" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F171" t="s">
         <v>434</v>
@@ -7962,7 +7965,7 @@
         <v>435</v>
       </c>
       <c r="H171" t="s">
-        <v>961</v>
+        <v>1012</v>
       </c>
       <c r="I171" t="s">
         <v>892</v>
@@ -7979,7 +7982,7 @@
         <v>436</v>
       </c>
       <c r="E172" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F172" t="s">
         <v>437</v>
@@ -7988,7 +7991,7 @@
         <v>438</v>
       </c>
       <c r="H172" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="I172" t="s">
         <v>892</v>
@@ -8005,7 +8008,7 @@
         <v>439</v>
       </c>
       <c r="E173" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F173" t="s">
         <v>440</v>
@@ -8014,7 +8017,7 @@
         <v>441</v>
       </c>
       <c r="H173" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="I173" t="s">
         <v>892</v>
@@ -8031,7 +8034,7 @@
         <v>442</v>
       </c>
       <c r="E174" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F174" t="s">
         <v>443</v>
@@ -8040,7 +8043,7 @@
         <v>444</v>
       </c>
       <c r="H174" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="I174" t="s">
         <v>892</v>
@@ -8057,7 +8060,7 @@
         <v>445</v>
       </c>
       <c r="E175" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F175" t="s">
         <v>446</v>
@@ -8066,10 +8069,10 @@
         <v>4</v>
       </c>
       <c r="H175" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="I175" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -8083,7 +8086,7 @@
         <v>447</v>
       </c>
       <c r="E176" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F176" t="s">
         <v>448</v>
@@ -8092,10 +8095,10 @@
         <v>4</v>
       </c>
       <c r="H176" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="I176" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -8109,7 +8112,7 @@
         <v>449</v>
       </c>
       <c r="E177" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F177" t="s">
         <v>450</v>
@@ -8121,7 +8124,7 @@
         <v>895</v>
       </c>
       <c r="I177" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -8135,7 +8138,7 @@
         <v>451</v>
       </c>
       <c r="E178" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F178" t="s">
         <v>452</v>
@@ -8147,7 +8150,7 @@
         <v>895</v>
       </c>
       <c r="I178" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -8161,7 +8164,7 @@
         <v>454</v>
       </c>
       <c r="E179" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F179" t="s">
         <v>455</v>
@@ -8170,10 +8173,10 @@
         <v>456</v>
       </c>
       <c r="H179" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="I179" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -8187,7 +8190,7 @@
         <v>457</v>
       </c>
       <c r="E180" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F180" t="s">
         <v>458</v>
@@ -8196,10 +8199,10 @@
         <v>459</v>
       </c>
       <c r="H180" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="I180" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -8213,7 +8216,7 @@
         <v>460</v>
       </c>
       <c r="E181" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F181" t="s">
         <v>461</v>
@@ -8222,10 +8225,10 @@
         <v>462</v>
       </c>
       <c r="H181" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="I181" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -8239,7 +8242,7 @@
         <v>463</v>
       </c>
       <c r="E182" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F182" t="s">
         <v>464</v>
@@ -8248,10 +8251,10 @@
         <v>465</v>
       </c>
       <c r="H182" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="I182" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -8265,7 +8268,7 @@
         <v>466</v>
       </c>
       <c r="E183" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F183" t="s">
         <v>467</v>
@@ -8274,10 +8277,10 @@
         <v>34</v>
       </c>
       <c r="H183" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="I183" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -8291,7 +8294,7 @@
         <v>468</v>
       </c>
       <c r="E184" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F184" t="s">
         <v>469</v>
@@ -8300,10 +8303,10 @@
         <v>470</v>
       </c>
       <c r="H184" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="I184" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -8317,7 +8320,7 @@
         <v>471</v>
       </c>
       <c r="E185" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F185" t="s">
         <v>472</v>
@@ -8326,10 +8329,10 @@
         <v>4</v>
       </c>
       <c r="H185" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="I185" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -8343,7 +8346,7 @@
         <v>473</v>
       </c>
       <c r="E186" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F186" t="s">
         <v>474</v>
@@ -8352,10 +8355,10 @@
         <v>475</v>
       </c>
       <c r="H186" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="I186" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -8369,7 +8372,7 @@
         <v>476</v>
       </c>
       <c r="E187" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F187" t="s">
         <v>477</v>
@@ -8378,10 +8381,10 @@
         <v>260</v>
       </c>
       <c r="H187" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="I187" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -8395,7 +8398,7 @@
         <v>478</v>
       </c>
       <c r="E188" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F188" t="s">
         <v>479</v>
@@ -8404,10 +8407,10 @@
         <v>480</v>
       </c>
       <c r="H188" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="I188" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -8421,7 +8424,7 @@
         <v>481</v>
       </c>
       <c r="E189" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F189" t="s">
         <v>482</v>
@@ -8430,10 +8433,10 @@
         <v>7</v>
       </c>
       <c r="H189" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="I189" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -8447,7 +8450,7 @@
         <v>483</v>
       </c>
       <c r="E190" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F190" t="s">
         <v>484</v>
@@ -8456,10 +8459,10 @@
         <v>485</v>
       </c>
       <c r="H190" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="I190" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
@@ -8473,7 +8476,7 @@
         <v>486</v>
       </c>
       <c r="E191" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F191" t="s">
         <v>487</v>
@@ -8482,10 +8485,10 @@
         <v>7</v>
       </c>
       <c r="H191" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="I191" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -8499,7 +8502,7 @@
         <v>488</v>
       </c>
       <c r="E192" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F192" t="s">
         <v>851</v>
@@ -8508,10 +8511,10 @@
         <v>489</v>
       </c>
       <c r="H192" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="I192" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
@@ -8525,7 +8528,7 @@
         <v>490</v>
       </c>
       <c r="E193" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F193" t="s">
         <v>491</v>
@@ -8534,10 +8537,10 @@
         <v>492</v>
       </c>
       <c r="H193" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="I193" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
@@ -8551,7 +8554,7 @@
         <v>493</v>
       </c>
       <c r="E194" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F194" t="s">
         <v>494</v>
@@ -8560,10 +8563,10 @@
         <v>495</v>
       </c>
       <c r="H194" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="I194" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
@@ -8577,7 +8580,7 @@
         <v>496</v>
       </c>
       <c r="E195" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F195" t="s">
         <v>497</v>
@@ -8586,10 +8589,10 @@
         <v>48</v>
       </c>
       <c r="H195" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="I195" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -8603,7 +8606,7 @@
         <v>498</v>
       </c>
       <c r="E196" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F196" t="s">
         <v>499</v>
@@ -8612,10 +8615,10 @@
         <v>500</v>
       </c>
       <c r="H196" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="I196" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -8629,7 +8632,7 @@
         <v>501</v>
       </c>
       <c r="E197" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F197" t="s">
         <v>502</v>
@@ -8638,10 +8641,10 @@
         <v>503</v>
       </c>
       <c r="H197" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="I197" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
@@ -8655,7 +8658,7 @@
         <v>504</v>
       </c>
       <c r="E198" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F198" t="s">
         <v>505</v>
@@ -8664,10 +8667,10 @@
         <v>506</v>
       </c>
       <c r="H198" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="I198" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -8681,7 +8684,7 @@
         <v>507</v>
       </c>
       <c r="E199" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F199" t="s">
         <v>508</v>
@@ -8690,10 +8693,10 @@
         <v>509</v>
       </c>
       <c r="H199" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="I199" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
@@ -8707,7 +8710,7 @@
         <v>510</v>
       </c>
       <c r="E200" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F200" t="s">
         <v>511</v>
@@ -8716,10 +8719,10 @@
         <v>512</v>
       </c>
       <c r="H200" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="I200" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
@@ -8733,7 +8736,7 @@
         <v>513</v>
       </c>
       <c r="E201" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F201" t="s">
         <v>514</v>
@@ -8742,10 +8745,10 @@
         <v>515</v>
       </c>
       <c r="H201" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="I201" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
@@ -8759,7 +8762,7 @@
         <v>516</v>
       </c>
       <c r="E202" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F202" t="s">
         <v>517</v>
@@ -8768,7 +8771,7 @@
         <v>260</v>
       </c>
       <c r="H202" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="I202" t="s">
         <v>892</v>
@@ -8785,7 +8788,7 @@
         <v>518</v>
       </c>
       <c r="E203" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F203" t="s">
         <v>519</v>
@@ -8794,10 +8797,10 @@
         <v>98</v>
       </c>
       <c r="H203" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="I203" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
@@ -8811,7 +8814,7 @@
         <v>520</v>
       </c>
       <c r="E204" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F204" t="s">
         <v>521</v>
@@ -8820,10 +8823,10 @@
         <v>522</v>
       </c>
       <c r="H204" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="I204" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
@@ -8837,7 +8840,7 @@
         <v>523</v>
       </c>
       <c r="E205" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F205" t="s">
         <v>524</v>
@@ -8846,10 +8849,10 @@
         <v>525</v>
       </c>
       <c r="H205" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="I205" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
@@ -8863,7 +8866,7 @@
         <v>526</v>
       </c>
       <c r="E206" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F206" t="s">
         <v>527</v>
@@ -8872,7 +8875,7 @@
         <v>528</v>
       </c>
       <c r="H206" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="I206" t="s">
         <v>892</v>
@@ -8889,7 +8892,7 @@
         <v>529</v>
       </c>
       <c r="E207" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F207" t="s">
         <v>852</v>
@@ -8898,7 +8901,7 @@
         <v>530</v>
       </c>
       <c r="H207" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="I207" t="s">
         <v>892</v>
@@ -8915,7 +8918,7 @@
         <v>531</v>
       </c>
       <c r="E208" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F208" t="s">
         <v>532</v>
@@ -8924,7 +8927,7 @@
         <v>533</v>
       </c>
       <c r="H208" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="I208" t="s">
         <v>892</v>
@@ -8941,7 +8944,7 @@
         <v>534</v>
       </c>
       <c r="E209" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F209" t="s">
         <v>535</v>
@@ -8950,7 +8953,7 @@
         <v>536</v>
       </c>
       <c r="H209" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="I209" t="s">
         <v>892</v>
@@ -8967,7 +8970,7 @@
         <v>537</v>
       </c>
       <c r="E210" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F210" t="s">
         <v>853</v>
@@ -8976,7 +8979,7 @@
         <v>538</v>
       </c>
       <c r="H210" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="I210" t="s">
         <v>892</v>
@@ -8993,7 +8996,7 @@
         <v>539</v>
       </c>
       <c r="E211" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F211" t="s">
         <v>540</v>
@@ -9002,7 +9005,7 @@
         <v>541</v>
       </c>
       <c r="H211" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="I211" t="s">
         <v>892</v>
@@ -9019,7 +9022,7 @@
         <v>542</v>
       </c>
       <c r="E212" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F212" t="s">
         <v>543</v>
@@ -9028,7 +9031,7 @@
         <v>435</v>
       </c>
       <c r="H212" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="I212" t="s">
         <v>892</v>
@@ -9045,7 +9048,7 @@
         <v>544</v>
       </c>
       <c r="E213" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F213" t="s">
         <v>545</v>
@@ -9054,7 +9057,7 @@
         <v>546</v>
       </c>
       <c r="H213" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="I213" t="s">
         <v>892</v>
@@ -9071,7 +9074,7 @@
         <v>547</v>
       </c>
       <c r="E214" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F214" t="s">
         <v>548</v>
@@ -9080,7 +9083,7 @@
         <v>549</v>
       </c>
       <c r="H214" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="I214" t="s">
         <v>892</v>
@@ -9097,7 +9100,7 @@
         <v>550</v>
       </c>
       <c r="E215" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F215" t="s">
         <v>551</v>
@@ -9106,10 +9109,10 @@
         <v>552</v>
       </c>
       <c r="H215" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="I215" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -9123,7 +9126,7 @@
         <v>553</v>
       </c>
       <c r="E216" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F216" t="s">
         <v>854</v>
@@ -9132,10 +9135,10 @@
         <v>25</v>
       </c>
       <c r="H216" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="I216" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -9149,7 +9152,7 @@
         <v>554</v>
       </c>
       <c r="E217" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F217" t="s">
         <v>555</v>
@@ -9158,10 +9161,10 @@
         <v>556</v>
       </c>
       <c r="H217" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="I217" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -9175,7 +9178,7 @@
         <v>557</v>
       </c>
       <c r="E218" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F218" t="s">
         <v>558</v>
@@ -9184,10 +9187,10 @@
         <v>31</v>
       </c>
       <c r="H218" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="I218" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -9201,7 +9204,7 @@
         <v>559</v>
       </c>
       <c r="E219" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F219" t="s">
         <v>882</v>
@@ -9210,10 +9213,10 @@
         <v>133</v>
       </c>
       <c r="H219" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="I219" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -9227,7 +9230,7 @@
         <v>560</v>
       </c>
       <c r="E220" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F220" t="s">
         <v>561</v>
@@ -9236,7 +9239,7 @@
         <v>562</v>
       </c>
       <c r="H220" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="I220" t="s">
         <v>892</v>
@@ -9253,7 +9256,7 @@
         <v>563</v>
       </c>
       <c r="E221" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F221" t="s">
         <v>564</v>
@@ -9262,7 +9265,7 @@
         <v>4</v>
       </c>
       <c r="H221" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="I221" t="s">
         <v>892</v>
@@ -9279,7 +9282,7 @@
         <v>565</v>
       </c>
       <c r="E222" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F222" t="s">
         <v>566</v>
@@ -9288,10 +9291,10 @@
         <v>567</v>
       </c>
       <c r="H222" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="I222" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -9305,7 +9308,7 @@
         <v>568</v>
       </c>
       <c r="E223" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F223" t="s">
         <v>569</v>
@@ -9314,7 +9317,7 @@
         <v>570</v>
       </c>
       <c r="H223" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="I223" t="s">
         <v>892</v>
@@ -9331,7 +9334,7 @@
         <v>571</v>
       </c>
       <c r="E224" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F224" t="s">
         <v>572</v>
@@ -9340,10 +9343,10 @@
         <v>164</v>
       </c>
       <c r="H224" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="I224" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -9357,7 +9360,7 @@
         <v>573</v>
       </c>
       <c r="E225" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F225" t="s">
         <v>574</v>
@@ -9366,7 +9369,7 @@
         <v>575</v>
       </c>
       <c r="H225" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="I225" t="s">
         <v>892</v>
@@ -9383,7 +9386,7 @@
         <v>576</v>
       </c>
       <c r="E226" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F226" t="s">
         <v>577</v>
@@ -9392,10 +9395,10 @@
         <v>7</v>
       </c>
       <c r="H226" t="s">
-        <v>981</v>
+        <v>1013</v>
       </c>
       <c r="I226" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -9409,7 +9412,7 @@
         <v>578</v>
       </c>
       <c r="E227" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F227" t="s">
         <v>579</v>
@@ -9418,10 +9421,10 @@
         <v>7</v>
       </c>
       <c r="H227" t="s">
-        <v>981</v>
+        <v>1013</v>
       </c>
       <c r="I227" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -9435,7 +9438,7 @@
         <v>580</v>
       </c>
       <c r="E228" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F228" t="s">
         <v>581</v>
@@ -9444,10 +9447,10 @@
         <v>582</v>
       </c>
       <c r="H228" t="s">
-        <v>981</v>
+        <v>1013</v>
       </c>
       <c r="I228" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -9461,7 +9464,7 @@
         <v>583</v>
       </c>
       <c r="E229" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F229" t="s">
         <v>584</v>
@@ -9470,10 +9473,10 @@
         <v>480</v>
       </c>
       <c r="H229" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="I229" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -9487,7 +9490,7 @@
         <v>585</v>
       </c>
       <c r="E230" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F230" t="s">
         <v>586</v>
@@ -9496,10 +9499,10 @@
         <v>7</v>
       </c>
       <c r="H230" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="I230" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -9513,7 +9516,7 @@
         <v>587</v>
       </c>
       <c r="E231" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F231" t="s">
         <v>884</v>
@@ -9522,10 +9525,10 @@
         <v>4</v>
       </c>
       <c r="H231" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="I231" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -9539,7 +9542,7 @@
         <v>588</v>
       </c>
       <c r="E232" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F232" t="s">
         <v>589</v>
@@ -9548,10 +9551,10 @@
         <v>590</v>
       </c>
       <c r="H232" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="I232" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -9565,7 +9568,7 @@
         <v>591</v>
       </c>
       <c r="E233" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F233" t="s">
         <v>592</v>
@@ -9574,10 +9577,10 @@
         <v>48</v>
       </c>
       <c r="H233" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="I233" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -9591,7 +9594,7 @@
         <v>593</v>
       </c>
       <c r="E234" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F234" t="s">
         <v>594</v>
@@ -9600,10 +9603,10 @@
         <v>595</v>
       </c>
       <c r="H234" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="I234" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -9617,7 +9620,7 @@
         <v>596</v>
       </c>
       <c r="E235" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F235" t="s">
         <v>597</v>
@@ -9626,10 +9629,10 @@
         <v>598</v>
       </c>
       <c r="H235" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="I235" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -9643,7 +9646,7 @@
         <v>599</v>
       </c>
       <c r="E236" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F236" t="s">
         <v>600</v>
@@ -9652,10 +9655,10 @@
         <v>601</v>
       </c>
       <c r="H236" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="I236" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -9669,7 +9672,7 @@
         <v>602</v>
       </c>
       <c r="E237" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F237" t="s">
         <v>603</v>
@@ -9678,7 +9681,7 @@
         <v>604</v>
       </c>
       <c r="H237" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="I237" t="s">
         <v>892</v>
@@ -9695,7 +9698,7 @@
         <v>605</v>
       </c>
       <c r="E238" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F238" t="s">
         <v>606</v>
@@ -9704,7 +9707,7 @@
         <v>607</v>
       </c>
       <c r="H238" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="I238" t="s">
         <v>892</v>
@@ -9724,7 +9727,7 @@
         <v>608</v>
       </c>
       <c r="E239" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F239" t="s">
         <v>855</v>
@@ -9733,7 +9736,7 @@
         <v>856</v>
       </c>
       <c r="H239" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="I239" t="s">
         <v>892</v>
@@ -9753,7 +9756,7 @@
         <v>609</v>
       </c>
       <c r="E240" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F240" t="s">
         <v>610</v>
@@ -9762,10 +9765,10 @@
         <v>611</v>
       </c>
       <c r="H240" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="I240" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -9779,7 +9782,7 @@
         <v>612</v>
       </c>
       <c r="E241" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F241" t="s">
         <v>857</v>
@@ -9788,10 +9791,10 @@
         <v>613</v>
       </c>
       <c r="H241" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="I241" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
@@ -9805,7 +9808,7 @@
         <v>614</v>
       </c>
       <c r="E242" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F242" t="s">
         <v>615</v>
@@ -9814,10 +9817,10 @@
         <v>616</v>
       </c>
       <c r="H242" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="I242" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
@@ -9831,7 +9834,7 @@
         <v>617</v>
       </c>
       <c r="E243" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F243" t="s">
         <v>618</v>
@@ -9840,7 +9843,7 @@
         <v>619</v>
       </c>
       <c r="H243" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="I243" t="s">
         <v>892</v>
@@ -9857,7 +9860,7 @@
         <v>620</v>
       </c>
       <c r="E244" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F244" t="s">
         <v>621</v>
@@ -9866,7 +9869,7 @@
         <v>622</v>
       </c>
       <c r="H244" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="I244" t="s">
         <v>892</v>
@@ -9886,7 +9889,7 @@
         <v>623</v>
       </c>
       <c r="E245" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F245" t="s">
         <v>624</v>
@@ -9895,10 +9898,10 @@
         <v>625</v>
       </c>
       <c r="H245" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="I245" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -9912,7 +9915,7 @@
         <v>626</v>
       </c>
       <c r="E246" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F246" t="s">
         <v>627</v>
@@ -9921,10 +9924,10 @@
         <v>883</v>
       </c>
       <c r="H246" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="I246" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -9938,7 +9941,7 @@
         <v>628</v>
       </c>
       <c r="E247" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F247" t="s">
         <v>629</v>
@@ -9947,10 +9950,10 @@
         <v>48</v>
       </c>
       <c r="H247" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="I247" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
@@ -9964,7 +9967,7 @@
         <v>630</v>
       </c>
       <c r="E248" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F248" t="s">
         <v>631</v>
@@ -9973,10 +9976,10 @@
         <v>4</v>
       </c>
       <c r="H248" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="I248" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
@@ -9990,7 +9993,7 @@
         <v>632</v>
       </c>
       <c r="E249" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F249" t="s">
         <v>633</v>
@@ -9999,10 +10002,10 @@
         <v>7</v>
       </c>
       <c r="H249" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="I249" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -10016,7 +10019,7 @@
         <v>634</v>
       </c>
       <c r="E250" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F250" t="s">
         <v>635</v>
@@ -10025,10 +10028,10 @@
         <v>103</v>
       </c>
       <c r="H250" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="I250" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
@@ -10042,7 +10045,7 @@
         <v>636</v>
       </c>
       <c r="E251" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F251" t="s">
         <v>637</v>
@@ -10051,10 +10054,10 @@
         <v>638</v>
       </c>
       <c r="H251" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="I251" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
@@ -10068,7 +10071,7 @@
         <v>639</v>
       </c>
       <c r="E252" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F252" t="s">
         <v>640</v>
@@ -10077,10 +10080,10 @@
         <v>641</v>
       </c>
       <c r="H252" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="I252" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
@@ -10094,7 +10097,7 @@
         <v>642</v>
       </c>
       <c r="E253" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F253" t="s">
         <v>643</v>
@@ -10103,10 +10106,10 @@
         <v>644</v>
       </c>
       <c r="H253" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="I253" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
@@ -10120,7 +10123,7 @@
         <v>645</v>
       </c>
       <c r="E254" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F254" t="s">
         <v>646</v>
@@ -10129,10 +10132,10 @@
         <v>647</v>
       </c>
       <c r="H254" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="I254" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
@@ -10146,7 +10149,7 @@
         <v>648</v>
       </c>
       <c r="E255" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F255" t="s">
         <v>649</v>
@@ -10155,10 +10158,10 @@
         <v>650</v>
       </c>
       <c r="H255" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="I255" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -10172,7 +10175,7 @@
         <v>651</v>
       </c>
       <c r="E256" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F256" t="s">
         <v>652</v>
@@ -10181,7 +10184,7 @@
         <v>4</v>
       </c>
       <c r="H256" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="I256" t="s">
         <v>892</v>
@@ -10198,7 +10201,7 @@
         <v>653</v>
       </c>
       <c r="E257" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F257" t="s">
         <v>654</v>
@@ -10207,7 +10210,7 @@
         <v>655</v>
       </c>
       <c r="H257" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="I257" t="s">
         <v>892</v>
@@ -10224,7 +10227,7 @@
         <v>656</v>
       </c>
       <c r="E258" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F258" t="s">
         <v>657</v>
@@ -10233,7 +10236,7 @@
         <v>4</v>
       </c>
       <c r="H258" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="I258" t="s">
         <v>892</v>
@@ -10250,7 +10253,7 @@
         <v>658</v>
       </c>
       <c r="E259" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F259" t="s">
         <v>659</v>
@@ -10259,7 +10262,7 @@
         <v>48</v>
       </c>
       <c r="H259" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="I259" t="s">
         <v>892</v>
@@ -10276,7 +10279,7 @@
         <v>660</v>
       </c>
       <c r="E260" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F260" t="s">
         <v>661</v>
@@ -10285,7 +10288,7 @@
         <v>4</v>
       </c>
       <c r="H260" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="I260" t="s">
         <v>892</v>
@@ -10302,7 +10305,7 @@
         <v>662</v>
       </c>
       <c r="E261" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F261" t="s">
         <v>663</v>
@@ -10311,10 +10314,10 @@
         <v>655</v>
       </c>
       <c r="H261" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="I261" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -10328,7 +10331,7 @@
         <v>664</v>
       </c>
       <c r="E262" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F262" t="s">
         <v>665</v>
@@ -10337,10 +10340,10 @@
         <v>4</v>
       </c>
       <c r="H262" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="I262" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -10354,7 +10357,7 @@
         <v>666</v>
       </c>
       <c r="E263" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F263" t="s">
         <v>667</v>
@@ -10363,10 +10366,10 @@
         <v>655</v>
       </c>
       <c r="H263" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="I263" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -10380,7 +10383,7 @@
         <v>668</v>
       </c>
       <c r="E264" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F264" t="s">
         <v>669</v>
@@ -10389,10 +10392,10 @@
         <v>4</v>
       </c>
       <c r="H264" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="I264" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -10406,7 +10409,7 @@
         <v>670</v>
       </c>
       <c r="E265" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F265" t="s">
         <v>671</v>
@@ -10415,10 +10418,10 @@
         <v>37</v>
       </c>
       <c r="H265" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="I265" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -10432,7 +10435,7 @@
         <v>672</v>
       </c>
       <c r="E266" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F266" t="s">
         <v>886</v>
@@ -10441,10 +10444,10 @@
         <v>4</v>
       </c>
       <c r="H266" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="I266" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -10461,7 +10464,7 @@
         <v>674</v>
       </c>
       <c r="E267" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F267" t="s">
         <v>675</v>
@@ -10470,7 +10473,7 @@
         <v>885</v>
       </c>
       <c r="H267" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="I267" t="s">
         <v>892</v>
@@ -10487,7 +10490,7 @@
         <v>676</v>
       </c>
       <c r="E268" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F268" t="s">
         <v>677</v>
@@ -10496,7 +10499,7 @@
         <v>678</v>
       </c>
       <c r="H268" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="I268" t="s">
         <v>892</v>
@@ -10516,7 +10519,7 @@
         <v>679</v>
       </c>
       <c r="E269" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F269" t="s">
         <v>680</v>
@@ -10525,7 +10528,7 @@
         <v>681</v>
       </c>
       <c r="H269" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="I269" t="s">
         <v>892</v>
@@ -10542,7 +10545,7 @@
         <v>682</v>
       </c>
       <c r="E270" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F270" t="s">
         <v>683</v>
@@ -10551,10 +10554,10 @@
         <v>684</v>
       </c>
       <c r="H270" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="I270" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -10568,7 +10571,7 @@
         <v>685</v>
       </c>
       <c r="E271" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F271" t="s">
         <v>686</v>
@@ -10577,10 +10580,10 @@
         <v>4</v>
       </c>
       <c r="H271" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="I271" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -10594,7 +10597,7 @@
         <v>687</v>
       </c>
       <c r="E272" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F272" t="s">
         <v>688</v>
@@ -10603,10 +10606,10 @@
         <v>689</v>
       </c>
       <c r="H272" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="I272" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -10620,7 +10623,7 @@
         <v>690</v>
       </c>
       <c r="E273" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F273" t="s">
         <v>691</v>
@@ -10629,10 +10632,10 @@
         <v>184</v>
       </c>
       <c r="H273" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="I273" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -10646,7 +10649,7 @@
         <v>692</v>
       </c>
       <c r="E274" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F274" t="s">
         <v>693</v>
@@ -10655,10 +10658,10 @@
         <v>44</v>
       </c>
       <c r="H274" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="I274" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -10672,7 +10675,7 @@
         <v>694</v>
       </c>
       <c r="E275" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F275" t="s">
         <v>695</v>
@@ -10681,10 +10684,10 @@
         <v>22</v>
       </c>
       <c r="H275" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="I275" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -10698,7 +10701,7 @@
         <v>696</v>
       </c>
       <c r="E276" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F276" t="s">
         <v>697</v>
@@ -10707,10 +10710,10 @@
         <v>184</v>
       </c>
       <c r="H276" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="I276" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -10724,7 +10727,7 @@
         <v>698</v>
       </c>
       <c r="E277" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F277" t="s">
         <v>699</v>
@@ -10733,10 +10736,10 @@
         <v>184</v>
       </c>
       <c r="H277" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="I277" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -10750,7 +10753,7 @@
         <v>700</v>
       </c>
       <c r="E278" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F278" t="s">
         <v>867</v>
@@ -10759,10 +10762,10 @@
         <v>868</v>
       </c>
       <c r="H278" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="I278" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -10776,7 +10779,7 @@
         <v>701</v>
       </c>
       <c r="E279" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F279" t="s">
         <v>869</v>
@@ -10785,10 +10788,10 @@
         <v>868</v>
       </c>
       <c r="H279" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="I279" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -10802,7 +10805,7 @@
         <v>702</v>
       </c>
       <c r="E280" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F280" t="s">
         <v>887</v>
@@ -10811,10 +10814,10 @@
         <v>703</v>
       </c>
       <c r="H280" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="I280" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -10828,7 +10831,7 @@
         <v>704</v>
       </c>
       <c r="E281" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F281" t="s">
         <v>705</v>
@@ -10837,10 +10840,10 @@
         <v>706</v>
       </c>
       <c r="H281" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="I281" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -10854,7 +10857,7 @@
         <v>707</v>
       </c>
       <c r="E282" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F282" t="s">
         <v>708</v>
@@ -10863,10 +10866,10 @@
         <v>709</v>
       </c>
       <c r="H282" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="I282" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -10880,7 +10883,7 @@
         <v>710</v>
       </c>
       <c r="E283" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F283" t="s">
         <v>711</v>
@@ -10889,10 +10892,10 @@
         <v>712</v>
       </c>
       <c r="H283" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="I283" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -10906,7 +10909,7 @@
         <v>713</v>
       </c>
       <c r="E284" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F284" t="s">
         <v>714</v>
@@ -10915,10 +10918,10 @@
         <v>715</v>
       </c>
       <c r="H284" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="I284" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -10932,7 +10935,7 @@
         <v>716</v>
       </c>
       <c r="E285" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F285" t="s">
         <v>717</v>
@@ -10941,10 +10944,10 @@
         <v>718</v>
       </c>
       <c r="H285" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="I285" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -10958,7 +10961,7 @@
         <v>719</v>
       </c>
       <c r="E286" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F286" t="s">
         <v>720</v>
@@ -10967,10 +10970,10 @@
         <v>721</v>
       </c>
       <c r="H286" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="I286" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -10984,7 +10987,7 @@
         <v>722</v>
       </c>
       <c r="E287" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F287" t="s">
         <v>866</v>
@@ -10993,10 +10996,10 @@
         <v>865</v>
       </c>
       <c r="H287" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="I287" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -11010,7 +11013,7 @@
         <v>723</v>
       </c>
       <c r="E288" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F288" t="s">
         <v>724</v>
@@ -11019,10 +11022,10 @@
         <v>184</v>
       </c>
       <c r="H288" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="I288" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -11036,7 +11039,7 @@
         <v>725</v>
       </c>
       <c r="E289" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F289" t="s">
         <v>726</v>
@@ -11045,10 +11048,10 @@
         <v>727</v>
       </c>
       <c r="H289" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="I289" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -11062,7 +11065,7 @@
         <v>728</v>
       </c>
       <c r="E290" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F290" t="s">
         <v>729</v>
@@ -11071,10 +11074,10 @@
         <v>48</v>
       </c>
       <c r="H290" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="I290" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -11088,7 +11091,7 @@
         <v>730</v>
       </c>
       <c r="E291" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F291" t="s">
         <v>731</v>
@@ -11097,10 +11100,10 @@
         <v>7</v>
       </c>
       <c r="H291" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="I291" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -11117,7 +11120,7 @@
         <v>732</v>
       </c>
       <c r="E292" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F292" t="s">
         <v>733</v>
@@ -11126,10 +11129,10 @@
         <v>734</v>
       </c>
       <c r="H292" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="I292" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -11146,7 +11149,7 @@
         <v>735</v>
       </c>
       <c r="E293" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F293" t="s">
         <v>736</v>
@@ -11155,10 +11158,10 @@
         <v>48</v>
       </c>
       <c r="H293" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="I293" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -11175,7 +11178,7 @@
         <v>737</v>
       </c>
       <c r="E294" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F294" t="s">
         <v>738</v>
@@ -11184,10 +11187,10 @@
         <v>34</v>
       </c>
       <c r="H294" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="I294" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -11204,7 +11207,7 @@
         <v>739</v>
       </c>
       <c r="E295" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F295" t="s">
         <v>740</v>
@@ -11213,10 +11216,10 @@
         <v>184</v>
       </c>
       <c r="H295" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="I295" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -11230,7 +11233,7 @@
         <v>741</v>
       </c>
       <c r="E296" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F296" t="s">
         <v>742</v>
@@ -11239,10 +11242,10 @@
         <v>743</v>
       </c>
       <c r="H296" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="I296" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -11256,7 +11259,7 @@
         <v>744</v>
       </c>
       <c r="E297" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F297" t="s">
         <v>745</v>
@@ -11265,10 +11268,10 @@
         <v>4</v>
       </c>
       <c r="H297" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="I297" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -11282,7 +11285,7 @@
         <v>746</v>
       </c>
       <c r="E298" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F298" t="s">
         <v>747</v>
@@ -11291,10 +11294,10 @@
         <v>748</v>
       </c>
       <c r="H298" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="I298" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -11311,7 +11314,7 @@
         <v>749</v>
       </c>
       <c r="E299" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F299" t="s">
         <v>750</v>
@@ -11320,10 +11323,10 @@
         <v>48</v>
       </c>
       <c r="H299" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="I299" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -11337,7 +11340,7 @@
         <v>751</v>
       </c>
       <c r="E300" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F300" t="s">
         <v>752</v>
@@ -11346,10 +11349,10 @@
         <v>4</v>
       </c>
       <c r="H300" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="I300" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -11363,7 +11366,7 @@
         <v>753</v>
       </c>
       <c r="E301" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F301" t="s">
         <v>754</v>
@@ -11372,10 +11375,10 @@
         <v>4</v>
       </c>
       <c r="H301" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="I301" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -11389,7 +11392,7 @@
         <v>755</v>
       </c>
       <c r="E302" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F302" t="s">
         <v>756</v>
@@ -11398,10 +11401,10 @@
         <v>4</v>
       </c>
       <c r="H302" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="I302" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -11415,7 +11418,7 @@
         <v>757</v>
       </c>
       <c r="E303" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F303" t="s">
         <v>758</v>
@@ -11424,10 +11427,10 @@
         <v>4</v>
       </c>
       <c r="H303" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="I303" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -11441,7 +11444,7 @@
         <v>759</v>
       </c>
       <c r="E304" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F304" t="s">
         <v>760</v>
@@ -11450,10 +11453,10 @@
         <v>4</v>
       </c>
       <c r="H304" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="I304" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.3">
@@ -11467,7 +11470,7 @@
         <v>761</v>
       </c>
       <c r="E305" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F305" t="s">
         <v>858</v>
@@ -11476,16 +11479,16 @@
         <v>625</v>
       </c>
       <c r="H305" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="I305" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="K305" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="L305" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.3">
@@ -11499,7 +11502,7 @@
         <v>762</v>
       </c>
       <c r="E306" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F306" t="s">
         <v>860</v>
@@ -11508,16 +11511,16 @@
         <v>859</v>
       </c>
       <c r="H306" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="I306" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="K306" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="L306" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.3">
@@ -11531,7 +11534,7 @@
         <v>763</v>
       </c>
       <c r="E307" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F307" t="s">
         <v>861</v>
@@ -11540,16 +11543,16 @@
         <v>184</v>
       </c>
       <c r="H307" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="I307" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="K307" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="L307" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.3">
@@ -11563,7 +11566,7 @@
         <v>764</v>
       </c>
       <c r="E308" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F308" t="s">
         <v>765</v>
@@ -11572,10 +11575,10 @@
         <v>862</v>
       </c>
       <c r="H308" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="I308" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J308" t="s">
         <v>893</v>
@@ -11592,7 +11595,7 @@
         <v>766</v>
       </c>
       <c r="E309" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F309" t="s">
         <v>767</v>
@@ -11601,10 +11604,10 @@
         <v>768</v>
       </c>
       <c r="H309" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="I309" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J309" t="s">
         <v>893</v>
@@ -11621,7 +11624,7 @@
         <v>769</v>
       </c>
       <c r="E310" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F310" t="s">
         <v>770</v>
@@ -11630,10 +11633,10 @@
         <v>771</v>
       </c>
       <c r="H310" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="I310" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J310" t="s">
         <v>893</v>
@@ -11650,7 +11653,7 @@
         <v>772</v>
       </c>
       <c r="E311" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F311" t="s">
         <v>773</v>
@@ -11659,10 +11662,10 @@
         <v>774</v>
       </c>
       <c r="H311" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="I311" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J311" t="s">
         <v>893</v>
@@ -11679,7 +11682,7 @@
         <v>775</v>
       </c>
       <c r="E312" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F312" t="s">
         <v>776</v>
@@ -11688,10 +11691,10 @@
         <v>777</v>
       </c>
       <c r="H312" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="I312" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J312" t="s">
         <v>893</v>
@@ -11708,7 +11711,7 @@
         <v>778</v>
       </c>
       <c r="E313" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F313" t="s">
         <v>779</v>
@@ -11717,10 +11720,10 @@
         <v>780</v>
       </c>
       <c r="H313" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="I313" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J313" t="s">
         <v>893</v>
@@ -11737,7 +11740,7 @@
         <v>781</v>
       </c>
       <c r="E314" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F314" t="s">
         <v>782</v>
@@ -11746,10 +11749,10 @@
         <v>48</v>
       </c>
       <c r="H314" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="I314" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.3">
@@ -11763,7 +11766,7 @@
         <v>783</v>
       </c>
       <c r="E315" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F315" t="s">
         <v>784</v>
@@ -11772,10 +11775,10 @@
         <v>590</v>
       </c>
       <c r="H315" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="I315" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.3">
@@ -11789,7 +11792,7 @@
         <v>785</v>
       </c>
       <c r="E316" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F316" t="s">
         <v>786</v>
@@ -11798,10 +11801,10 @@
         <v>787</v>
       </c>
       <c r="H316" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="I316" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.3">
@@ -11815,7 +11818,7 @@
         <v>788</v>
       </c>
       <c r="E317" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F317" t="s">
         <v>789</v>
@@ -11824,10 +11827,10 @@
         <v>790</v>
       </c>
       <c r="H317" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="I317" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.3">
@@ -11841,7 +11844,7 @@
         <v>791</v>
       </c>
       <c r="E318" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F318" t="s">
         <v>792</v>
@@ -11850,10 +11853,10 @@
         <v>793</v>
       </c>
       <c r="H318" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="I318" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.3">
@@ -11867,7 +11870,7 @@
         <v>794</v>
       </c>
       <c r="E319" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F319" t="s">
         <v>795</v>
@@ -11876,10 +11879,10 @@
         <v>796</v>
       </c>
       <c r="H319" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="I319" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.3">
@@ -11893,7 +11896,7 @@
         <v>797</v>
       </c>
       <c r="E320" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F320" t="s">
         <v>798</v>
@@ -11902,10 +11905,10 @@
         <v>799</v>
       </c>
       <c r="H320" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="I320" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="321" spans="1:16" x14ac:dyDescent="0.3">
@@ -11919,7 +11922,7 @@
         <v>800</v>
       </c>
       <c r="E321" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F321" t="s">
         <v>801</v>
@@ -11928,10 +11931,10 @@
         <v>133</v>
       </c>
       <c r="H321" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="I321" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="322" spans="1:16" x14ac:dyDescent="0.3">
@@ -11945,7 +11948,7 @@
         <v>802</v>
       </c>
       <c r="E322" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F322" t="s">
         <v>803</v>
@@ -11954,10 +11957,10 @@
         <v>804</v>
       </c>
       <c r="H322" t="s">
-        <v>1008</v>
+        <v>1021</v>
       </c>
       <c r="I322" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="323" spans="1:16" x14ac:dyDescent="0.3">
@@ -11971,7 +11974,7 @@
         <v>805</v>
       </c>
       <c r="E323" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F323" t="s">
         <v>888</v>
@@ -11980,10 +11983,10 @@
         <v>590</v>
       </c>
       <c r="H323" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="I323" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="324" spans="1:16" x14ac:dyDescent="0.3">
@@ -11997,7 +12000,7 @@
         <v>806</v>
       </c>
       <c r="E324" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F324" t="s">
         <v>889</v>
@@ -12006,7 +12009,7 @@
         <v>48</v>
       </c>
       <c r="H324" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="I324" t="s">
         <v>892</v>
@@ -12023,7 +12026,7 @@
         <v>807</v>
       </c>
       <c r="E325" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F325" t="s">
         <v>808</v>
@@ -12032,7 +12035,7 @@
         <v>809</v>
       </c>
       <c r="H325" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="I325" t="s">
         <v>892</v>
@@ -12049,7 +12052,7 @@
         <v>810</v>
       </c>
       <c r="E326" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F326" t="s">
         <v>811</v>
@@ -12058,7 +12061,7 @@
         <v>812</v>
       </c>
       <c r="H326" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="I326" t="s">
         <v>892</v>
@@ -12075,7 +12078,7 @@
         <v>813</v>
       </c>
       <c r="E327" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F327" t="s">
         <v>814</v>
@@ -12084,7 +12087,7 @@
         <v>184</v>
       </c>
       <c r="H327" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="I327" t="s">
         <v>892</v>
@@ -12101,7 +12104,7 @@
         <v>815</v>
       </c>
       <c r="E328" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F328" t="s">
         <v>890</v>
@@ -12110,7 +12113,7 @@
         <v>48</v>
       </c>
       <c r="H328" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="I328" t="s">
         <v>892</v>
@@ -12127,7 +12130,7 @@
         <v>2</v>
       </c>
       <c r="E329" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F329" t="s">
         <v>367</v>
@@ -12136,7 +12139,7 @@
         <v>816</v>
       </c>
       <c r="H329" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="I329" t="s">
         <v>892</v>
@@ -12153,7 +12156,7 @@
         <v>5</v>
       </c>
       <c r="E330" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F330" t="s">
         <v>891</v>
@@ -12162,10 +12165,10 @@
         <v>817</v>
       </c>
       <c r="H330" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="I330" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="331" spans="1:16" x14ac:dyDescent="0.3">
@@ -12179,7 +12182,7 @@
         <v>8</v>
       </c>
       <c r="E331" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F331" t="s">
         <v>818</v>
@@ -12188,10 +12191,10 @@
         <v>145</v>
       </c>
       <c r="H331" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="I331" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="332" spans="1:16" x14ac:dyDescent="0.3">
@@ -12205,7 +12208,7 @@
         <v>11</v>
       </c>
       <c r="E332" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F332" t="s">
         <v>370</v>
@@ -12214,28 +12217,28 @@
         <v>819</v>
       </c>
       <c r="H332" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="I332" t="s">
         <v>892</v>
       </c>
       <c r="K332" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="L332" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="M332" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="N332" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="O332" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="P332" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="333" spans="1:16" x14ac:dyDescent="0.3">
@@ -12249,7 +12252,7 @@
         <v>14</v>
       </c>
       <c r="E333" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F333" t="s">
         <v>820</v>
@@ -12258,10 +12261,10 @@
         <v>821</v>
       </c>
       <c r="H333" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="I333" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="334" spans="1:16" x14ac:dyDescent="0.3">
@@ -12275,7 +12278,7 @@
         <v>17</v>
       </c>
       <c r="E334" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F334" t="s">
         <v>822</v>
@@ -12284,10 +12287,10 @@
         <v>823</v>
       </c>
       <c r="H334" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="I334" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="335" spans="1:16" x14ac:dyDescent="0.3">
@@ -12301,7 +12304,7 @@
         <v>20</v>
       </c>
       <c r="E335" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F335" t="s">
         <v>824</v>
@@ -12310,10 +12313,10 @@
         <v>825</v>
       </c>
       <c r="H335" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="I335" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="336" spans="1:16" x14ac:dyDescent="0.3">
@@ -12327,7 +12330,7 @@
         <v>23</v>
       </c>
       <c r="E336" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F336" t="s">
         <v>826</v>
@@ -12336,10 +12339,10 @@
         <v>827</v>
       </c>
       <c r="H336" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="I336" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -12353,7 +12356,7 @@
         <v>26</v>
       </c>
       <c r="E337" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F337" t="s">
         <v>863</v>
@@ -12362,10 +12365,10 @@
         <v>864</v>
       </c>
       <c r="H337" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="I337" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -12379,7 +12382,7 @@
         <v>29</v>
       </c>
       <c r="E338" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F338" t="s">
         <v>828</v>
@@ -12388,10 +12391,10 @@
         <v>829</v>
       </c>
       <c r="H338" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="I338" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -12405,7 +12408,7 @@
         <v>32</v>
       </c>
       <c r="E339" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F339" t="s">
         <v>830</v>
@@ -12414,10 +12417,10 @@
         <v>831</v>
       </c>
       <c r="H339" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="I339" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -12431,7 +12434,7 @@
         <v>35</v>
       </c>
       <c r="E340" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F340" t="s">
         <v>832</v>
@@ -12440,14 +12443,15 @@
         <v>833</v>
       </c>
       <c r="H340" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="I340" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>